--- a/VTT Tool/VTT DATA.xlsx
+++ b/VTT Tool/VTT DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OLMEDOJorge\Documents\Python projects\Horse Luis\VTT Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D410B4-BC15-4846-B24E-D8ACB2AECE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF889D0A-9303-4D6F-A97C-99D06B01A63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F9BAF1D-C4F9-4C63-99BA-ADCB8DC6383A}"/>
   </bookViews>
@@ -2556,10 +2556,10 @@
   <dimension ref="A1:BD51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA1" sqref="BA1"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12257,7 +12257,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:BD51" xr:uid="{869D9611-F0E3-4A7A-9239-9C1FA0F0C8DA}"/>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A51 A2:BC2 C51:AZ51 A3:AZ50 BA3:BC51">
+  <conditionalFormatting sqref="A2:BC2 A3:AZ50 BA3:BC51 A51 C51:AZ51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$BD2&lt;=TODAY()</formula>
     </cfRule>

--- a/VTT Tool/VTT DATA.xlsx
+++ b/VTT Tool/VTT DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OLMEDOJorge\Documents\Python projects\Horse Luis\VTT Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF889D0A-9303-4D6F-A97C-99D06B01A63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C041BB-17AA-4EF6-B742-8BA82977C887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F9BAF1D-C4F9-4C63-99BA-ADCB8DC6383A}"/>
   </bookViews>
@@ -1482,14 +1482,14 @@
       <sheetName val="Notice"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="1">
           <cell r="A1" t="str">
@@ -2222,12 +2222,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2556,10 +2556,10 @@
   <dimension ref="A1:BD51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
+      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,15 +2841,15 @@
         <v>26</v>
       </c>
       <c r="Z2" s="24">
-        <f t="shared" ref="Z2:Z33" si="9">+Y2</f>
-        <v>26</v>
+        <f>+Y2+X2-1</f>
+        <v>30</v>
       </c>
       <c r="AA2" s="24">
-        <f t="shared" ref="AA2:AA33" si="10">+Z2+AB2-1</f>
+        <f t="shared" ref="AA2:AA33" si="9">+Z2+AB2-1</f>
         <v>32</v>
       </c>
       <c r="AB2" s="19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="19">
         <v>4</v>
@@ -2861,21 +2861,21 @@
         <v>34</v>
       </c>
       <c r="AF2" s="19">
-        <f t="shared" ref="AF2:AF33" si="11">+AE2+AA2-1</f>
+        <f t="shared" ref="AF2:AF33" si="10">+AE2+AA2-1</f>
         <v>65</v>
       </c>
       <c r="AG2" s="25">
         <v>3</v>
       </c>
       <c r="AH2" s="25">
-        <f t="shared" ref="AH2:AH33" si="12">+AF2+AG2</f>
+        <f t="shared" ref="AH2:AH33" si="11">+AF2+AG2</f>
         <v>68</v>
       </c>
       <c r="AI2" s="19">
         <v>7</v>
       </c>
       <c r="AJ2" s="20">
-        <f t="shared" ref="AJ2:AJ33" si="13">+AI2+AH2</f>
+        <f t="shared" ref="AJ2:AJ33" si="12">+AI2+AH2</f>
         <v>75</v>
       </c>
       <c r="AK2" s="20" t="s">
@@ -2885,36 +2885,36 @@
         <v>4</v>
       </c>
       <c r="AM2" s="49">
-        <f t="shared" ref="AM2:AM33" si="14">+AJ2+AL2</f>
+        <f t="shared" ref="AM2:AM33" si="13">+AJ2+AL2</f>
         <v>79</v>
       </c>
       <c r="AN2" s="19">
         <v>2</v>
       </c>
       <c r="AO2" s="20">
-        <f t="shared" ref="AO2:AO33" si="15">+AM2+AN2</f>
+        <f t="shared" ref="AO2:AO33" si="14">+AM2+AN2</f>
         <v>81</v>
       </c>
       <c r="AP2" s="16">
         <v>3</v>
       </c>
       <c r="AQ2" s="49">
-        <f t="shared" ref="AQ2:AQ33" si="16">+AO2+AP2</f>
+        <f t="shared" ref="AQ2:AQ33" si="15">+AO2+AP2</f>
         <v>84</v>
       </c>
       <c r="AR2" s="49">
-        <f t="shared" ref="AR2:AR33" si="17">+AQ2+7</f>
+        <f t="shared" ref="AR2:AR33" si="16">+AQ2+7</f>
         <v>91</v>
       </c>
       <c r="AS2" s="49">
-        <f t="shared" ref="AS2:AS33" si="18">+AR2+7+AT2</f>
+        <f t="shared" ref="AS2:AS33" si="17">+AR2+7+AT2</f>
         <v>105</v>
       </c>
       <c r="AT2" s="49">
         <v>7</v>
       </c>
       <c r="AU2" s="49">
-        <f t="shared" ref="AU2:AU33" si="19">+AA2-R2</f>
+        <f t="shared" ref="AU2:AU33" si="18">+AA2-R2</f>
         <v>16</v>
       </c>
       <c r="AV2" s="27">
@@ -3031,12 +3031,12 @@
         <v>26</v>
       </c>
       <c r="Z3" s="24">
+        <f t="shared" ref="Z3:Z51" si="19">+Y3+X3-1</f>
+        <v>30</v>
+      </c>
+      <c r="AA3" s="24">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="AA3" s="24">
-        <f t="shared" si="10"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="19">
         <v>4</v>
@@ -3051,22 +3051,22 @@
         <v>43</v>
       </c>
       <c r="AF3" s="19">
-        <f t="shared" si="11"/>
-        <v>71</v>
+        <f t="shared" si="10"/>
+        <v>75</v>
       </c>
       <c r="AG3" s="25">
         <v>3</v>
       </c>
       <c r="AH3" s="25">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="20">
         <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="20">
-        <f t="shared" si="13"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AK3" s="20" t="s">
         <v>81</v>
@@ -3075,37 +3075,37 @@
         <v>1</v>
       </c>
       <c r="AM3" s="49">
-        <f t="shared" si="14"/>
-        <v>75</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="AN3" s="19">
         <v>1</v>
       </c>
       <c r="AO3" s="20">
-        <f t="shared" si="15"/>
-        <v>76</v>
+        <f t="shared" si="14"/>
+        <v>80</v>
       </c>
       <c r="AP3" s="16">
         <v>3</v>
       </c>
       <c r="AQ3" s="49">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="AR3" s="49">
         <f t="shared" si="16"/>
-        <v>79</v>
-      </c>
-      <c r="AR3" s="49">
+        <v>90</v>
+      </c>
+      <c r="AS3" s="49">
         <f t="shared" si="17"/>
-        <v>86</v>
-      </c>
-      <c r="AS3" s="49">
+        <v>104</v>
+      </c>
+      <c r="AT3" s="49">
+        <v>7</v>
+      </c>
+      <c r="AU3" s="49">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="AT3" s="49">
-        <v>7</v>
-      </c>
-      <c r="AU3" s="49">
-        <f t="shared" si="19"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AV3" s="27">
         <v>18</v>
@@ -3221,12 +3221,12 @@
         <v>26</v>
       </c>
       <c r="Z4" s="24">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="AA4" s="24">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="AA4" s="24">
-        <f t="shared" si="10"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB4" s="19">
         <v>3</v>
@@ -3241,22 +3241,22 @@
         <v>30</v>
       </c>
       <c r="AF4" s="19">
-        <f t="shared" si="11"/>
-        <v>57</v>
+        <f t="shared" si="10"/>
+        <v>61</v>
       </c>
       <c r="AG4" s="25">
         <v>3</v>
       </c>
       <c r="AH4" s="25">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="20">
         <f t="shared" si="12"/>
-        <v>60</v>
-      </c>
-      <c r="AI4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="20">
-        <f t="shared" si="13"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AK4" s="20" t="s">
         <v>81</v>
@@ -3265,37 +3265,37 @@
         <v>2</v>
       </c>
       <c r="AM4" s="49">
-        <f t="shared" si="14"/>
-        <v>62</v>
+        <f t="shared" si="13"/>
+        <v>66</v>
       </c>
       <c r="AN4" s="19">
         <v>3</v>
       </c>
       <c r="AO4" s="20">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="AP4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="49">
         <f t="shared" si="15"/>
-        <v>65</v>
-      </c>
-      <c r="AP4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="49">
+        <v>69</v>
+      </c>
+      <c r="AR4" s="49">
         <f t="shared" si="16"/>
-        <v>65</v>
-      </c>
-      <c r="AR4" s="49">
+        <v>76</v>
+      </c>
+      <c r="AS4" s="49">
         <f t="shared" si="17"/>
-        <v>72</v>
-      </c>
-      <c r="AS4" s="49">
-        <f t="shared" si="18"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AT4" s="49">
         <v>13</v>
       </c>
       <c r="AU4" s="49">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="AV4" s="27">
         <v>17</v>
@@ -3411,12 +3411,12 @@
         <v>31</v>
       </c>
       <c r="Z5" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA5" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA5" s="24">
-        <f t="shared" si="10"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="19">
         <v>3</v>
@@ -3431,22 +3431,22 @@
         <v>39</v>
       </c>
       <c r="AF5" s="19">
-        <f t="shared" si="11"/>
-        <v>71</v>
+        <f t="shared" si="10"/>
+        <v>73</v>
       </c>
       <c r="AG5" s="25">
         <v>3</v>
       </c>
       <c r="AH5" s="25">
+        <f>+AF5+AG5</f>
+        <v>76</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="20">
         <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="20">
-        <f t="shared" si="13"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK5" s="20" t="s">
         <v>76</v>
@@ -3455,37 +3455,37 @@
         <v>2</v>
       </c>
       <c r="AM5" s="49">
-        <f t="shared" si="14"/>
-        <v>76</v>
+        <f t="shared" si="13"/>
+        <v>78</v>
       </c>
       <c r="AN5" s="19">
         <v>2</v>
       </c>
       <c r="AO5" s="20">
-        <f t="shared" si="15"/>
-        <v>78</v>
+        <f t="shared" si="14"/>
+        <v>80</v>
       </c>
       <c r="AP5" s="16">
         <v>6</v>
       </c>
       <c r="AQ5" s="49">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="AR5" s="49">
         <f t="shared" si="16"/>
-        <v>84</v>
-      </c>
-      <c r="AR5" s="49">
+        <v>93</v>
+      </c>
+      <c r="AS5" s="49">
         <f t="shared" si="17"/>
-        <v>91</v>
-      </c>
-      <c r="AS5" s="49">
-        <f t="shared" si="18"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AT5" s="49">
         <v>14</v>
       </c>
       <c r="AU5" s="49">
-        <f t="shared" si="19"/>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="AV5" s="27">
         <v>17</v>
@@ -3601,12 +3601,12 @@
         <v>31</v>
       </c>
       <c r="Z6" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA6" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA6" s="24">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB6" s="19">
         <v>4</v>
@@ -3621,22 +3621,22 @@
         <v>37</v>
       </c>
       <c r="AF6" s="19">
-        <f t="shared" si="11"/>
-        <v>70</v>
+        <f t="shared" si="10"/>
+        <v>72</v>
       </c>
       <c r="AG6" s="25">
         <v>3</v>
       </c>
       <c r="AH6" s="25">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="20">
         <f t="shared" si="12"/>
-        <v>73</v>
-      </c>
-      <c r="AI6" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="20">
-        <f t="shared" si="13"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK6" s="20" t="s">
         <v>76</v>
@@ -3645,37 +3645,37 @@
         <v>3</v>
       </c>
       <c r="AM6" s="49">
-        <f t="shared" si="14"/>
-        <v>83</v>
+        <f t="shared" si="13"/>
+        <v>85</v>
       </c>
       <c r="AN6" s="19">
         <v>4</v>
       </c>
       <c r="AO6" s="20">
-        <f t="shared" si="15"/>
-        <v>87</v>
+        <f t="shared" si="14"/>
+        <v>89</v>
       </c>
       <c r="AP6" s="16">
         <v>2</v>
       </c>
       <c r="AQ6" s="49">
+        <f t="shared" si="15"/>
+        <v>91</v>
+      </c>
+      <c r="AR6" s="49">
         <f t="shared" si="16"/>
-        <v>89</v>
-      </c>
-      <c r="AR6" s="49">
+        <v>98</v>
+      </c>
+      <c r="AS6" s="49">
         <f t="shared" si="17"/>
-        <v>96</v>
-      </c>
-      <c r="AS6" s="49">
-        <f t="shared" si="18"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AT6" s="49">
         <v>14</v>
       </c>
       <c r="AU6" s="49">
-        <f t="shared" si="19"/>
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="AV6" s="27">
         <v>18</v>
@@ -3791,12 +3791,12 @@
         <v>30</v>
       </c>
       <c r="Z7" s="24">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="AA7" s="24">
         <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="AA7" s="24">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="19">
         <v>5</v>
@@ -3811,22 +3811,22 @@
         <v>52</v>
       </c>
       <c r="AF7" s="19">
-        <f t="shared" si="11"/>
-        <v>85</v>
+        <f t="shared" si="10"/>
+        <v>86</v>
       </c>
       <c r="AG7" s="25">
         <v>3</v>
       </c>
       <c r="AH7" s="25">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="20">
         <f t="shared" si="12"/>
-        <v>88</v>
-      </c>
-      <c r="AI7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="20">
-        <f t="shared" si="13"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK7" s="20" t="s">
         <v>71</v>
@@ -3835,37 +3835,37 @@
         <v>4</v>
       </c>
       <c r="AM7" s="49">
-        <f t="shared" si="14"/>
-        <v>92</v>
+        <f t="shared" si="13"/>
+        <v>93</v>
       </c>
       <c r="AN7" s="19">
         <v>2</v>
       </c>
       <c r="AO7" s="20">
-        <f t="shared" si="15"/>
-        <v>94</v>
+        <f t="shared" si="14"/>
+        <v>95</v>
       </c>
       <c r="AP7" s="16">
         <v>1</v>
       </c>
       <c r="AQ7" s="49">
+        <f t="shared" si="15"/>
+        <v>96</v>
+      </c>
+      <c r="AR7" s="49">
         <f t="shared" si="16"/>
-        <v>95</v>
-      </c>
-      <c r="AR7" s="49">
+        <v>103</v>
+      </c>
+      <c r="AS7" s="49">
         <f t="shared" si="17"/>
-        <v>102</v>
-      </c>
-      <c r="AS7" s="49">
-        <f t="shared" si="18"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AT7" s="49">
         <v>10</v>
       </c>
       <c r="AU7" s="49">
-        <f t="shared" si="19"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="AV7" s="27">
         <v>14</v>
@@ -3981,12 +3981,12 @@
         <v>30</v>
       </c>
       <c r="Z8" s="24">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="AA8" s="24">
         <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="AA8" s="24">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="19">
         <v>5</v>
@@ -4001,22 +4001,22 @@
         <v>40</v>
       </c>
       <c r="AF8" s="19">
-        <f t="shared" si="11"/>
-        <v>73</v>
+        <f t="shared" si="10"/>
+        <v>74</v>
       </c>
       <c r="AG8" s="25">
         <v>3</v>
       </c>
       <c r="AH8" s="25">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="20">
         <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="20">
-        <f t="shared" si="13"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" s="20" t="s">
         <v>71</v>
@@ -4025,37 +4025,37 @@
         <v>2</v>
       </c>
       <c r="AM8" s="49">
-        <f t="shared" si="14"/>
-        <v>78</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="AN8" s="19">
         <v>3</v>
       </c>
       <c r="AO8" s="20">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="AP8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="49">
         <f t="shared" si="15"/>
-        <v>81</v>
-      </c>
-      <c r="AP8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="49">
+        <v>82</v>
+      </c>
+      <c r="AR8" s="49">
         <f t="shared" si="16"/>
-        <v>81</v>
-      </c>
-      <c r="AR8" s="49">
+        <v>89</v>
+      </c>
+      <c r="AS8" s="49">
         <f t="shared" si="17"/>
-        <v>88</v>
-      </c>
-      <c r="AS8" s="49">
-        <f t="shared" si="18"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AT8" s="49">
         <v>17</v>
       </c>
       <c r="AU8" s="49">
-        <f t="shared" si="19"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="AV8" s="27">
         <v>13</v>
@@ -4171,12 +4171,12 @@
         <v>30</v>
       </c>
       <c r="Z9" s="24">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="AA9" s="24">
         <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="AA9" s="24">
-        <f t="shared" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB9" s="19">
         <v>7</v>
@@ -4191,22 +4191,22 @@
         <v>34</v>
       </c>
       <c r="AF9" s="19">
-        <f t="shared" si="11"/>
-        <v>69</v>
+        <f t="shared" si="10"/>
+        <v>70</v>
       </c>
       <c r="AG9" s="25">
         <v>3</v>
       </c>
       <c r="AH9" s="25">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="AI9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="20">
         <f t="shared" si="12"/>
-        <v>72</v>
-      </c>
-      <c r="AI9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="20">
-        <f t="shared" si="13"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK9" s="20" t="s">
         <v>71</v>
@@ -4215,37 +4215,37 @@
         <v>2</v>
       </c>
       <c r="AM9" s="49">
-        <f t="shared" si="14"/>
-        <v>74</v>
+        <f t="shared" si="13"/>
+        <v>75</v>
       </c>
       <c r="AN9" s="19">
         <v>2</v>
       </c>
       <c r="AO9" s="20">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="AP9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="49">
         <f t="shared" si="15"/>
-        <v>76</v>
-      </c>
-      <c r="AP9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="49">
+        <v>77</v>
+      </c>
+      <c r="AR9" s="49">
         <f t="shared" si="16"/>
-        <v>76</v>
-      </c>
-      <c r="AR9" s="49">
+        <v>84</v>
+      </c>
+      <c r="AS9" s="49">
         <f t="shared" si="17"/>
-        <v>83</v>
-      </c>
-      <c r="AS9" s="49">
-        <f t="shared" si="18"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT9" s="49">
         <v>17</v>
       </c>
       <c r="AU9" s="49">
-        <f t="shared" si="19"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="AV9" s="27">
         <v>14</v>
@@ -4361,12 +4361,12 @@
         <v>30</v>
       </c>
       <c r="Z10" s="24">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="AA10" s="24">
         <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="AA10" s="24">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB10" s="19">
         <v>3</v>
@@ -4381,22 +4381,22 @@
         <v>50</v>
       </c>
       <c r="AF10" s="19">
-        <f t="shared" si="11"/>
-        <v>81</v>
+        <f t="shared" si="10"/>
+        <v>82</v>
       </c>
       <c r="AG10" s="25">
         <v>3</v>
       </c>
       <c r="AH10" s="25">
-        <f t="shared" si="12"/>
-        <v>84</v>
+        <f t="shared" si="11"/>
+        <v>85</v>
       </c>
       <c r="AI10" s="19">
         <v>14</v>
       </c>
       <c r="AJ10" s="20">
-        <f t="shared" si="13"/>
-        <v>98</v>
+        <f t="shared" si="12"/>
+        <v>99</v>
       </c>
       <c r="AK10" s="20" t="s">
         <v>71</v>
@@ -4405,37 +4405,37 @@
         <v>1</v>
       </c>
       <c r="AM10" s="49">
-        <f t="shared" si="14"/>
-        <v>99</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="AN10" s="19">
         <v>1</v>
       </c>
       <c r="AO10" s="20">
-        <f t="shared" si="15"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>101</v>
       </c>
       <c r="AP10" s="16">
         <v>4</v>
       </c>
       <c r="AQ10" s="49">
+        <f t="shared" si="15"/>
+        <v>105</v>
+      </c>
+      <c r="AR10" s="49">
         <f t="shared" si="16"/>
-        <v>104</v>
-      </c>
-      <c r="AR10" s="49">
+        <v>112</v>
+      </c>
+      <c r="AS10" s="49">
         <f t="shared" si="17"/>
-        <v>111</v>
-      </c>
-      <c r="AS10" s="49">
-        <f t="shared" si="18"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AT10" s="49">
         <v>14</v>
       </c>
       <c r="AU10" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="AV10" s="27">
         <v>10</v>
@@ -4551,12 +4551,12 @@
         <v>37</v>
       </c>
       <c r="Z11" s="24">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="AA11" s="24">
         <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="AA11" s="24">
-        <f t="shared" si="10"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB11" s="19">
         <v>2</v>
@@ -4571,22 +4571,22 @@
         <v>39</v>
       </c>
       <c r="AF11" s="19">
-        <f t="shared" si="11"/>
-        <v>76</v>
+        <f t="shared" si="10"/>
+        <v>77</v>
       </c>
       <c r="AG11" s="25">
         <v>3</v>
       </c>
       <c r="AH11" s="25">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="AI11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="20">
         <f t="shared" si="12"/>
-        <v>79</v>
-      </c>
-      <c r="AI11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="20">
-        <f t="shared" si="13"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK11" s="20" t="s">
         <v>71</v>
@@ -4595,37 +4595,37 @@
         <v>2</v>
       </c>
       <c r="AM11" s="49">
-        <f t="shared" si="14"/>
-        <v>81</v>
+        <f t="shared" si="13"/>
+        <v>82</v>
       </c>
       <c r="AN11" s="19">
         <v>3</v>
       </c>
       <c r="AO11" s="20">
-        <f t="shared" si="15"/>
-        <v>84</v>
+        <f t="shared" si="14"/>
+        <v>85</v>
       </c>
       <c r="AP11" s="16">
         <v>6</v>
       </c>
       <c r="AQ11" s="49">
+        <f t="shared" si="15"/>
+        <v>91</v>
+      </c>
+      <c r="AR11" s="49">
         <f t="shared" si="16"/>
-        <v>90</v>
-      </c>
-      <c r="AR11" s="49">
+        <v>98</v>
+      </c>
+      <c r="AS11" s="49">
         <f t="shared" si="17"/>
-        <v>97</v>
-      </c>
-      <c r="AS11" s="49">
+        <v>105</v>
+      </c>
+      <c r="AT11" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="49">
         <f t="shared" si="18"/>
-        <v>104</v>
-      </c>
-      <c r="AT11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="49">
-        <f t="shared" si="19"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV11" s="27">
         <v>9</v>
@@ -4741,12 +4741,12 @@
         <v>37</v>
       </c>
       <c r="Z12" s="24">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="AA12" s="24">
         <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="AA12" s="24">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB12" s="19">
         <v>3</v>
@@ -4761,22 +4761,22 @@
         <v>44</v>
       </c>
       <c r="AF12" s="19">
-        <f t="shared" si="11"/>
-        <v>82</v>
+        <f t="shared" si="10"/>
+        <v>83</v>
       </c>
       <c r="AG12" s="25">
         <v>3</v>
       </c>
       <c r="AH12" s="25">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="AI12" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="20">
         <f t="shared" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="AI12" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="20">
-        <f t="shared" si="13"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK12" s="20" t="s">
         <v>71</v>
@@ -4785,37 +4785,37 @@
         <v>4</v>
       </c>
       <c r="AM12" s="49">
-        <f t="shared" si="14"/>
-        <v>89</v>
+        <f t="shared" si="13"/>
+        <v>90</v>
       </c>
       <c r="AN12" s="19">
         <v>2</v>
       </c>
       <c r="AO12" s="20">
-        <f t="shared" si="15"/>
-        <v>91</v>
+        <f t="shared" si="14"/>
+        <v>92</v>
       </c>
       <c r="AP12" s="16">
         <v>6</v>
       </c>
       <c r="AQ12" s="49">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
+      <c r="AR12" s="49">
         <f t="shared" si="16"/>
-        <v>97</v>
-      </c>
-      <c r="AR12" s="49">
+        <v>105</v>
+      </c>
+      <c r="AS12" s="49">
         <f t="shared" si="17"/>
-        <v>104</v>
-      </c>
-      <c r="AS12" s="49">
+        <v>112</v>
+      </c>
+      <c r="AT12" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="49">
         <f t="shared" si="18"/>
-        <v>111</v>
-      </c>
-      <c r="AT12" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV12" s="27">
         <v>10</v>
@@ -4931,12 +4931,12 @@
         <v>37</v>
       </c>
       <c r="Z13" s="24">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="AA13" s="24">
         <f t="shared" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="AA13" s="24">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB13" s="19">
         <v>6</v>
@@ -4951,22 +4951,22 @@
         <v>17</v>
       </c>
       <c r="AF13" s="19">
-        <f t="shared" si="11"/>
-        <v>58</v>
+        <f t="shared" si="10"/>
+        <v>59</v>
       </c>
       <c r="AG13" s="25">
         <v>3</v>
       </c>
       <c r="AH13" s="25">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="AI13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="20">
         <f t="shared" si="12"/>
-        <v>61</v>
-      </c>
-      <c r="AI13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="20">
-        <f t="shared" si="13"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" s="20" t="s">
         <v>71</v>
@@ -4975,37 +4975,37 @@
         <v>6</v>
       </c>
       <c r="AM13" s="49">
-        <f t="shared" si="14"/>
-        <v>67</v>
+        <f t="shared" si="13"/>
+        <v>68</v>
       </c>
       <c r="AN13" s="19">
         <v>3</v>
       </c>
       <c r="AO13" s="20">
-        <f t="shared" si="15"/>
-        <v>70</v>
+        <f t="shared" si="14"/>
+        <v>71</v>
       </c>
       <c r="AP13" s="16">
         <v>5</v>
       </c>
       <c r="AQ13" s="49">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="AR13" s="49">
         <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="AR13" s="49">
+        <v>83</v>
+      </c>
+      <c r="AS13" s="49">
         <f t="shared" si="17"/>
-        <v>82</v>
-      </c>
-      <c r="AS13" s="49">
+        <v>90</v>
+      </c>
+      <c r="AT13" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="49">
         <f t="shared" si="18"/>
-        <v>89</v>
-      </c>
-      <c r="AT13" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="49">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV13" s="27">
         <v>14</v>
@@ -5121,12 +5121,12 @@
         <v>26</v>
       </c>
       <c r="Z14" s="24">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="AA14" s="24">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="AA14" s="24">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB14" s="19">
         <v>5</v>
@@ -5141,22 +5141,22 @@
         <v>43</v>
       </c>
       <c r="AF14" s="19">
-        <f t="shared" si="11"/>
-        <v>72</v>
+        <f t="shared" si="10"/>
+        <v>76</v>
       </c>
       <c r="AG14" s="25">
         <v>3</v>
       </c>
       <c r="AH14" s="25">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="AI14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="20">
         <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="AI14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="20">
-        <f t="shared" si="13"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AK14" s="20" t="s">
         <v>76</v>
@@ -5165,41 +5165,41 @@
         <v>2</v>
       </c>
       <c r="AM14" s="49">
-        <f t="shared" si="14"/>
-        <v>77</v>
+        <f t="shared" si="13"/>
+        <v>81</v>
       </c>
       <c r="AN14" s="19">
         <v>2</v>
       </c>
       <c r="AO14" s="20">
-        <f t="shared" si="15"/>
-        <v>79</v>
+        <f t="shared" si="14"/>
+        <v>83</v>
       </c>
       <c r="AP14" s="16">
         <v>5</v>
       </c>
       <c r="AQ14" s="49">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="AR14" s="49">
         <f t="shared" si="16"/>
-        <v>84</v>
-      </c>
-      <c r="AR14" s="49">
+        <v>95</v>
+      </c>
+      <c r="AS14" s="49">
         <f t="shared" si="17"/>
-        <v>91</v>
-      </c>
-      <c r="AS14" s="49">
-        <f t="shared" si="18"/>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AT14" s="49">
         <v>6</v>
       </c>
       <c r="AU14" s="49">
-        <f t="shared" si="19"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="AV14" s="27">
         <f>+AA14-R14</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AW14" s="19">
         <v>46</v>
@@ -5312,12 +5312,12 @@
         <v>26</v>
       </c>
       <c r="Z15" s="24">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="AA15" s="24">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="AA15" s="24">
-        <f t="shared" si="10"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB15" s="19">
         <v>5</v>
@@ -5332,22 +5332,22 @@
         <v>27</v>
       </c>
       <c r="AF15" s="19">
-        <f t="shared" si="11"/>
-        <v>56</v>
+        <f t="shared" si="10"/>
+        <v>60</v>
       </c>
       <c r="AG15" s="25">
         <v>3</v>
       </c>
       <c r="AH15" s="25">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="AI15" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="20">
         <f t="shared" si="12"/>
-        <v>59</v>
-      </c>
-      <c r="AI15" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ15" s="20">
-        <f t="shared" si="13"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AK15" s="20" t="s">
         <v>76</v>
@@ -5356,37 +5356,37 @@
         <v>2</v>
       </c>
       <c r="AM15" s="49">
-        <f t="shared" si="14"/>
-        <v>68</v>
+        <f t="shared" si="13"/>
+        <v>72</v>
       </c>
       <c r="AN15" s="19">
         <v>2</v>
       </c>
       <c r="AO15" s="20">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="AP15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="49">
         <f t="shared" si="15"/>
-        <v>70</v>
-      </c>
-      <c r="AP15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="49">
+        <v>74</v>
+      </c>
+      <c r="AR15" s="49">
         <f t="shared" si="16"/>
-        <v>70</v>
-      </c>
-      <c r="AR15" s="49">
+        <v>81</v>
+      </c>
+      <c r="AS15" s="49">
         <f t="shared" si="17"/>
-        <v>77</v>
-      </c>
-      <c r="AS15" s="49">
-        <f t="shared" si="18"/>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AT15" s="49">
         <v>14</v>
       </c>
       <c r="AU15" s="49">
-        <f t="shared" si="19"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="AV15" s="27">
         <v>14</v>
@@ -5502,12 +5502,12 @@
         <v>31</v>
       </c>
       <c r="Z16" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA16" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA16" s="24">
-        <f t="shared" si="10"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB16" s="19">
         <v>10</v>
@@ -5522,22 +5522,22 @@
         <v>27</v>
       </c>
       <c r="AF16" s="19">
-        <f t="shared" si="11"/>
-        <v>66</v>
+        <f t="shared" si="10"/>
+        <v>68</v>
       </c>
       <c r="AG16" s="25">
         <v>3</v>
       </c>
       <c r="AH16" s="25">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="AI16" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ16" s="20">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="AI16" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ16" s="20">
-        <f t="shared" si="13"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK16" s="20" t="s">
         <v>76</v>
@@ -5546,37 +5546,37 @@
         <v>3</v>
       </c>
       <c r="AM16" s="49">
-        <f t="shared" si="14"/>
-        <v>79</v>
+        <f t="shared" si="13"/>
+        <v>81</v>
       </c>
       <c r="AN16" s="19">
         <v>3</v>
       </c>
       <c r="AO16" s="20">
-        <f t="shared" si="15"/>
-        <v>82</v>
+        <f t="shared" si="14"/>
+        <v>84</v>
       </c>
       <c r="AP16" s="16">
         <v>2</v>
       </c>
       <c r="AQ16" s="49">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="AR16" s="49">
         <f t="shared" si="16"/>
-        <v>84</v>
-      </c>
-      <c r="AR16" s="49">
+        <v>93</v>
+      </c>
+      <c r="AS16" s="49">
         <f t="shared" si="17"/>
-        <v>91</v>
-      </c>
-      <c r="AS16" s="49">
-        <f t="shared" si="18"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AT16" s="49">
         <v>14</v>
       </c>
       <c r="AU16" s="49">
-        <f t="shared" si="19"/>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="AV16" s="27">
         <v>17</v>
@@ -5692,12 +5692,12 @@
         <v>23</v>
       </c>
       <c r="Z17" s="24">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="AA17" s="24">
         <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="AA17" s="24">
-        <f t="shared" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB17" s="19">
         <v>3</v>
@@ -5712,22 +5712,22 @@
         <v>34</v>
       </c>
       <c r="AF17" s="19">
-        <f t="shared" si="11"/>
-        <v>58</v>
+        <f t="shared" si="10"/>
+        <v>59</v>
       </c>
       <c r="AG17" s="25">
         <v>3</v>
       </c>
       <c r="AH17" s="25">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="AI17" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ17" s="20">
         <f t="shared" si="12"/>
-        <v>61</v>
-      </c>
-      <c r="AI17" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ17" s="20">
-        <f t="shared" si="13"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK17" s="20">
         <v>0</v>
@@ -5736,37 +5736,37 @@
         <v>6</v>
       </c>
       <c r="AM17" s="49">
-        <f t="shared" si="14"/>
-        <v>74</v>
+        <f t="shared" si="13"/>
+        <v>75</v>
       </c>
       <c r="AN17" s="19">
         <v>2</v>
       </c>
       <c r="AO17" s="20">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="AP17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="49">
         <f t="shared" si="15"/>
-        <v>76</v>
-      </c>
-      <c r="AP17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="49">
+        <v>77</v>
+      </c>
+      <c r="AR17" s="49">
         <f t="shared" si="16"/>
-        <v>76</v>
-      </c>
-      <c r="AR17" s="49">
+        <v>84</v>
+      </c>
+      <c r="AS17" s="49">
         <f t="shared" si="17"/>
-        <v>83</v>
-      </c>
-      <c r="AS17" s="49">
+        <v>91</v>
+      </c>
+      <c r="AT17" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="49">
         <f t="shared" si="18"/>
-        <v>90</v>
-      </c>
-      <c r="AT17" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV17" s="27">
         <v>10</v>
@@ -5882,12 +5882,12 @@
         <v>33</v>
       </c>
       <c r="Z18" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA18" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA18" s="24">
-        <f t="shared" si="10"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AB18" s="19">
         <v>3</v>
@@ -5902,22 +5902,22 @@
         <v>66</v>
       </c>
       <c r="AF18" s="19">
-        <f t="shared" si="11"/>
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="AG18" s="25">
         <v>3</v>
       </c>
       <c r="AH18" s="25">
+        <f t="shared" si="11"/>
+        <v>107</v>
+      </c>
+      <c r="AI18" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ18" s="20">
         <f t="shared" si="12"/>
-        <v>103</v>
-      </c>
-      <c r="AI18" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ18" s="20">
-        <f t="shared" si="13"/>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AK18" s="20" t="s">
         <v>71</v>
@@ -5926,37 +5926,37 @@
         <v>2</v>
       </c>
       <c r="AM18" s="49">
-        <f t="shared" si="14"/>
-        <v>112</v>
+        <f t="shared" si="13"/>
+        <v>116</v>
       </c>
       <c r="AN18" s="19">
         <v>2</v>
       </c>
       <c r="AO18" s="20">
-        <f t="shared" si="15"/>
-        <v>114</v>
+        <f t="shared" si="14"/>
+        <v>118</v>
       </c>
       <c r="AP18" s="16">
         <v>5</v>
       </c>
       <c r="AQ18" s="49">
+        <f t="shared" si="15"/>
+        <v>123</v>
+      </c>
+      <c r="AR18" s="49">
         <f t="shared" si="16"/>
-        <v>119</v>
-      </c>
-      <c r="AR18" s="49">
+        <v>130</v>
+      </c>
+      <c r="AS18" s="49">
         <f t="shared" si="17"/>
-        <v>126</v>
-      </c>
-      <c r="AS18" s="49">
-        <f t="shared" si="18"/>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AT18" s="49">
         <v>10</v>
       </c>
       <c r="AU18" s="49">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="AV18" s="27">
         <v>12</v>
@@ -6072,12 +6072,12 @@
         <v>33</v>
       </c>
       <c r="Z19" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA19" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA19" s="24">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB19" s="19">
         <v>2</v>
@@ -6092,22 +6092,22 @@
         <v>49</v>
       </c>
       <c r="AF19" s="19">
-        <f t="shared" si="11"/>
-        <v>82</v>
+        <f t="shared" si="10"/>
+        <v>86</v>
       </c>
       <c r="AG19" s="25">
         <v>3</v>
       </c>
       <c r="AH19" s="25">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="AI19" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ19" s="20">
         <f t="shared" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="AI19" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ19" s="20">
-        <f t="shared" si="13"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AK19" s="20" t="s">
         <v>71</v>
@@ -6116,37 +6116,37 @@
         <v>1</v>
       </c>
       <c r="AM19" s="49">
-        <f t="shared" si="14"/>
-        <v>93</v>
+        <f t="shared" si="13"/>
+        <v>97</v>
       </c>
       <c r="AN19" s="19">
         <v>1</v>
       </c>
       <c r="AO19" s="20">
-        <f t="shared" si="15"/>
-        <v>94</v>
+        <f t="shared" si="14"/>
+        <v>98</v>
       </c>
       <c r="AP19" s="16">
         <v>6</v>
       </c>
       <c r="AQ19" s="49">
+        <f t="shared" si="15"/>
+        <v>104</v>
+      </c>
+      <c r="AR19" s="49">
         <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-      <c r="AR19" s="49">
+        <v>111</v>
+      </c>
+      <c r="AS19" s="49">
         <f t="shared" si="17"/>
-        <v>107</v>
-      </c>
-      <c r="AS19" s="49">
-        <f t="shared" si="18"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AT19" s="49">
         <v>13</v>
       </c>
       <c r="AU19" s="49">
-        <f t="shared" si="19"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="AV19" s="27">
         <v>16</v>
@@ -6262,12 +6262,12 @@
         <v>33</v>
       </c>
       <c r="Z20" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA20" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA20" s="24">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB20" s="19">
         <v>7</v>
@@ -6282,22 +6282,22 @@
         <v>49</v>
       </c>
       <c r="AF20" s="19">
-        <f t="shared" si="11"/>
-        <v>87</v>
+        <f t="shared" si="10"/>
+        <v>91</v>
       </c>
       <c r="AG20" s="25">
         <v>3</v>
       </c>
       <c r="AH20" s="25">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="AI20" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ20" s="20">
         <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="AI20" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ20" s="20">
-        <f t="shared" si="13"/>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK20" s="20" t="s">
         <v>71</v>
@@ -6306,37 +6306,37 @@
         <v>2</v>
       </c>
       <c r="AM20" s="49">
-        <f t="shared" si="14"/>
-        <v>99</v>
+        <f t="shared" si="13"/>
+        <v>103</v>
       </c>
       <c r="AN20" s="19">
         <v>2</v>
       </c>
       <c r="AO20" s="20">
-        <f t="shared" si="15"/>
-        <v>101</v>
+        <f t="shared" si="14"/>
+        <v>105</v>
       </c>
       <c r="AP20" s="16">
         <v>6</v>
       </c>
       <c r="AQ20" s="49">
+        <f t="shared" si="15"/>
+        <v>111</v>
+      </c>
+      <c r="AR20" s="49">
         <f t="shared" si="16"/>
-        <v>107</v>
-      </c>
-      <c r="AR20" s="49">
+        <v>118</v>
+      </c>
+      <c r="AS20" s="49">
         <f t="shared" si="17"/>
-        <v>114</v>
-      </c>
-      <c r="AS20" s="49">
-        <f t="shared" si="18"/>
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AT20" s="49">
         <v>14</v>
       </c>
       <c r="AU20" s="49">
-        <f t="shared" si="19"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="AV20" s="27">
         <v>14</v>
@@ -6452,12 +6452,12 @@
         <v>31</v>
       </c>
       <c r="Z21" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA21" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA21" s="24">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB21" s="19">
         <v>4</v>
@@ -6472,22 +6472,22 @@
         <v>45</v>
       </c>
       <c r="AF21" s="19">
-        <f t="shared" si="11"/>
-        <v>78</v>
+        <f t="shared" si="10"/>
+        <v>80</v>
       </c>
       <c r="AG21" s="25">
         <v>3</v>
       </c>
       <c r="AH21" s="25">
+        <f t="shared" si="11"/>
+        <v>83</v>
+      </c>
+      <c r="AI21" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ21" s="20">
         <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
-      <c r="AI21" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ21" s="20">
-        <f t="shared" si="13"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AK21" s="20" t="s">
         <v>71</v>
@@ -6496,37 +6496,37 @@
         <v>2</v>
       </c>
       <c r="AM21" s="49">
-        <f t="shared" si="14"/>
-        <v>90</v>
+        <f t="shared" si="13"/>
+        <v>92</v>
       </c>
       <c r="AN21" s="19">
         <v>3</v>
       </c>
       <c r="AO21" s="20">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
+      <c r="AP21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="49">
         <f t="shared" si="15"/>
-        <v>93</v>
-      </c>
-      <c r="AP21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="49">
+        <v>95</v>
+      </c>
+      <c r="AR21" s="49">
         <f t="shared" si="16"/>
-        <v>93</v>
-      </c>
-      <c r="AR21" s="49">
+        <v>102</v>
+      </c>
+      <c r="AS21" s="49">
         <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="AS21" s="49">
-        <f t="shared" si="18"/>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AT21" s="49">
         <v>14</v>
       </c>
       <c r="AU21" s="49">
-        <f t="shared" si="19"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>13</v>
       </c>
       <c r="AV21" s="27">
         <v>11</v>
@@ -6642,12 +6642,12 @@
         <v>33</v>
       </c>
       <c r="Z22" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA22" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA22" s="24">
-        <f t="shared" si="10"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AB22" s="19">
         <v>5</v>
@@ -6662,22 +6662,22 @@
         <v>33</v>
       </c>
       <c r="AF22" s="19">
-        <f t="shared" si="11"/>
-        <v>69</v>
+        <f t="shared" si="10"/>
+        <v>73</v>
       </c>
       <c r="AG22" s="25">
         <v>3</v>
       </c>
       <c r="AH22" s="25">
-        <f t="shared" si="12"/>
-        <v>72</v>
+        <f t="shared" si="11"/>
+        <v>76</v>
       </c>
       <c r="AI22" s="19">
         <v>14</v>
       </c>
       <c r="AJ22" s="20">
-        <f t="shared" si="13"/>
-        <v>86</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="AK22" s="20" t="s">
         <v>71</v>
@@ -6686,37 +6686,37 @@
         <v>2</v>
       </c>
       <c r="AM22" s="49">
-        <f t="shared" si="14"/>
-        <v>88</v>
+        <f t="shared" si="13"/>
+        <v>92</v>
       </c>
       <c r="AN22" s="19">
         <v>2</v>
       </c>
       <c r="AO22" s="20">
-        <f t="shared" si="15"/>
-        <v>90</v>
+        <f t="shared" si="14"/>
+        <v>94</v>
       </c>
       <c r="AP22" s="16">
         <v>3</v>
       </c>
       <c r="AQ22" s="49">
+        <f t="shared" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="AR22" s="49">
         <f t="shared" si="16"/>
-        <v>93</v>
-      </c>
-      <c r="AR22" s="49">
+        <v>104</v>
+      </c>
+      <c r="AS22" s="49">
         <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="AS22" s="49">
-        <f t="shared" si="18"/>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AT22" s="49">
         <v>14</v>
       </c>
       <c r="AU22" s="49">
-        <f t="shared" si="19"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="AV22" s="27">
         <v>12</v>
@@ -6832,12 +6832,12 @@
         <v>33</v>
       </c>
       <c r="Z23" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA23" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA23" s="24">
-        <f t="shared" si="10"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB23" s="19">
         <v>7</v>
@@ -6852,22 +6852,22 @@
         <v>61</v>
       </c>
       <c r="AF23" s="19">
-        <f t="shared" si="11"/>
-        <v>99</v>
+        <f t="shared" si="10"/>
+        <v>103</v>
       </c>
       <c r="AG23" s="25">
         <v>3</v>
       </c>
       <c r="AH23" s="25">
+        <f t="shared" si="11"/>
+        <v>106</v>
+      </c>
+      <c r="AI23" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ23" s="20">
         <f t="shared" si="12"/>
-        <v>102</v>
-      </c>
-      <c r="AI23" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ23" s="20">
-        <f t="shared" si="13"/>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AK23" s="20" t="s">
         <v>71</v>
@@ -6876,37 +6876,37 @@
         <v>2</v>
       </c>
       <c r="AM23" s="49">
-        <f t="shared" si="14"/>
-        <v>111</v>
+        <f t="shared" si="13"/>
+        <v>115</v>
       </c>
       <c r="AN23" s="19">
         <v>2</v>
       </c>
       <c r="AO23" s="20">
-        <f t="shared" si="15"/>
-        <v>113</v>
+        <f t="shared" si="14"/>
+        <v>117</v>
       </c>
       <c r="AP23" s="16">
         <v>6</v>
       </c>
       <c r="AQ23" s="49">
+        <f t="shared" si="15"/>
+        <v>123</v>
+      </c>
+      <c r="AR23" s="49">
         <f t="shared" si="16"/>
-        <v>119</v>
-      </c>
-      <c r="AR23" s="49">
+        <v>130</v>
+      </c>
+      <c r="AS23" s="49">
         <f t="shared" si="17"/>
-        <v>126</v>
-      </c>
-      <c r="AS23" s="49">
-        <f t="shared" si="18"/>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AT23" s="49">
         <v>10</v>
       </c>
       <c r="AU23" s="49">
-        <f t="shared" si="19"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="AV23" s="27">
         <v>16</v>
@@ -7022,12 +7022,12 @@
         <v>33</v>
       </c>
       <c r="Z24" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA24" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA24" s="24">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB24" s="19">
         <v>2</v>
@@ -7042,22 +7042,22 @@
         <v>36</v>
       </c>
       <c r="AF24" s="19">
-        <f t="shared" si="11"/>
-        <v>69</v>
+        <f t="shared" si="10"/>
+        <v>73</v>
       </c>
       <c r="AG24" s="25">
         <v>3</v>
       </c>
       <c r="AH24" s="25">
-        <f t="shared" si="12"/>
-        <v>72</v>
+        <f t="shared" si="11"/>
+        <v>76</v>
       </c>
       <c r="AI24" s="19">
         <v>14</v>
       </c>
       <c r="AJ24" s="20">
-        <f t="shared" si="13"/>
-        <v>86</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="AK24" s="20" t="s">
         <v>71</v>
@@ -7066,37 +7066,37 @@
         <v>2</v>
       </c>
       <c r="AM24" s="49">
-        <f t="shared" si="14"/>
-        <v>88</v>
+        <f t="shared" si="13"/>
+        <v>92</v>
       </c>
       <c r="AN24" s="19">
         <v>2</v>
       </c>
       <c r="AO24" s="20">
-        <f t="shared" si="15"/>
-        <v>90</v>
+        <f t="shared" si="14"/>
+        <v>94</v>
       </c>
       <c r="AP24" s="16">
         <v>3</v>
       </c>
       <c r="AQ24" s="49">
+        <f t="shared" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="AR24" s="49">
         <f t="shared" si="16"/>
-        <v>93</v>
-      </c>
-      <c r="AR24" s="49">
+        <v>104</v>
+      </c>
+      <c r="AS24" s="49">
         <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="AS24" s="49">
-        <f t="shared" si="18"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AT24" s="49">
         <v>9</v>
       </c>
       <c r="AU24" s="49">
-        <f t="shared" si="19"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="AV24" s="27">
         <v>16</v>
@@ -7212,12 +7212,12 @@
         <v>33</v>
       </c>
       <c r="Z25" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA25" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA25" s="24">
-        <f t="shared" si="10"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB25" s="19">
         <v>4</v>
@@ -7232,22 +7232,22 @@
         <v>30</v>
       </c>
       <c r="AF25" s="19">
-        <f t="shared" si="11"/>
-        <v>65</v>
+        <f t="shared" si="10"/>
+        <v>69</v>
       </c>
       <c r="AG25" s="25">
         <v>3</v>
       </c>
       <c r="AH25" s="25">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="AI25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="20">
         <f t="shared" si="12"/>
-        <v>68</v>
-      </c>
-      <c r="AI25" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="20">
-        <f t="shared" si="13"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AK25" s="20" t="s">
         <v>71</v>
@@ -7256,37 +7256,37 @@
         <v>2</v>
       </c>
       <c r="AM25" s="49">
-        <f t="shared" si="14"/>
-        <v>70</v>
+        <f t="shared" si="13"/>
+        <v>74</v>
       </c>
       <c r="AN25" s="19">
         <v>4</v>
       </c>
       <c r="AO25" s="20">
-        <f t="shared" si="15"/>
-        <v>74</v>
+        <f t="shared" si="14"/>
+        <v>78</v>
       </c>
       <c r="AP25" s="16">
         <v>6</v>
       </c>
       <c r="AQ25" s="49">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="AR25" s="49">
         <f t="shared" si="16"/>
-        <v>80</v>
-      </c>
-      <c r="AR25" s="49">
+        <v>91</v>
+      </c>
+      <c r="AS25" s="49">
         <f t="shared" si="17"/>
-        <v>87</v>
-      </c>
-      <c r="AS25" s="49">
-        <f t="shared" si="18"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AT25" s="49">
         <v>14</v>
       </c>
       <c r="AU25" s="49">
-        <f t="shared" si="19"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="AV25" s="27">
         <v>18</v>
@@ -7402,12 +7402,12 @@
         <v>33</v>
       </c>
       <c r="Z26" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA26" s="24">
         <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
-      <c r="AA26" s="24">
-        <f t="shared" si="10"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB26" s="19">
         <v>4</v>
@@ -7422,22 +7422,22 @@
         <v>48</v>
       </c>
       <c r="AF26" s="19">
-        <f t="shared" si="11"/>
-        <v>83</v>
+        <f t="shared" si="10"/>
+        <v>87</v>
       </c>
       <c r="AG26" s="25">
         <v>3</v>
       </c>
       <c r="AH26" s="25">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="AI26" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="20">
         <f t="shared" si="12"/>
-        <v>86</v>
-      </c>
-      <c r="AI26" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="20">
-        <f t="shared" si="13"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AK26" s="20" t="s">
         <v>71</v>
@@ -7446,37 +7446,37 @@
         <v>2</v>
       </c>
       <c r="AM26" s="49">
-        <f t="shared" si="14"/>
-        <v>88</v>
+        <f t="shared" si="13"/>
+        <v>92</v>
       </c>
       <c r="AN26" s="19">
         <v>2</v>
       </c>
       <c r="AO26" s="20">
-        <f t="shared" si="15"/>
-        <v>90</v>
+        <f t="shared" si="14"/>
+        <v>94</v>
       </c>
       <c r="AP26" s="16">
         <v>3</v>
       </c>
       <c r="AQ26" s="49">
+        <f t="shared" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="AR26" s="49">
         <f t="shared" si="16"/>
-        <v>93</v>
-      </c>
-      <c r="AR26" s="49">
+        <v>104</v>
+      </c>
+      <c r="AS26" s="49">
         <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="AS26" s="49">
-        <f t="shared" si="18"/>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AT26" s="49">
         <v>14</v>
       </c>
       <c r="AU26" s="49">
-        <f t="shared" si="19"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="AV26" s="27">
         <v>18</v>
@@ -7592,12 +7592,12 @@
         <v>31</v>
       </c>
       <c r="Z27" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA27" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA27" s="24">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB27" s="19">
         <v>2</v>
@@ -7612,22 +7612,22 @@
         <v>40</v>
       </c>
       <c r="AF27" s="19">
-        <f t="shared" si="11"/>
-        <v>71</v>
+        <f t="shared" si="10"/>
+        <v>73</v>
       </c>
       <c r="AG27" s="25">
         <v>3</v>
       </c>
       <c r="AH27" s="25">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="AI27" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="20">
         <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="AI27" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="20">
-        <f t="shared" si="13"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK27" s="20" t="s">
         <v>76</v>
@@ -7636,37 +7636,37 @@
         <v>2</v>
       </c>
       <c r="AM27" s="49">
-        <f t="shared" si="14"/>
-        <v>76</v>
+        <f t="shared" si="13"/>
+        <v>78</v>
       </c>
       <c r="AN27" s="19">
         <v>2</v>
       </c>
       <c r="AO27" s="20">
-        <f t="shared" si="15"/>
-        <v>78</v>
+        <f t="shared" si="14"/>
+        <v>80</v>
       </c>
       <c r="AP27" s="16">
         <v>6</v>
       </c>
       <c r="AQ27" s="49">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="AR27" s="49">
         <f t="shared" si="16"/>
-        <v>84</v>
-      </c>
-      <c r="AR27" s="49">
+        <v>93</v>
+      </c>
+      <c r="AS27" s="49">
         <f t="shared" si="17"/>
-        <v>91</v>
-      </c>
-      <c r="AS27" s="49">
+        <v>100</v>
+      </c>
+      <c r="AT27" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="49">
         <f t="shared" si="18"/>
-        <v>98</v>
-      </c>
-      <c r="AT27" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV27" s="27">
         <v>16</v>
@@ -7782,12 +7782,12 @@
         <v>31</v>
       </c>
       <c r="Z28" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA28" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA28" s="24">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB28" s="19">
         <v>2</v>
@@ -7802,22 +7802,22 @@
         <v>50</v>
       </c>
       <c r="AF28" s="19">
-        <f t="shared" si="11"/>
-        <v>81</v>
+        <f t="shared" si="10"/>
+        <v>83</v>
       </c>
       <c r="AG28" s="25">
         <v>3</v>
       </c>
       <c r="AH28" s="25">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="AI28" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="20">
         <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="AI28" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="20">
-        <f t="shared" si="13"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AK28" s="20" t="s">
         <v>76</v>
@@ -7826,37 +7826,37 @@
         <v>4</v>
       </c>
       <c r="AM28" s="49">
-        <f t="shared" si="14"/>
-        <v>88</v>
+        <f t="shared" si="13"/>
+        <v>90</v>
       </c>
       <c r="AN28" s="19">
         <v>2</v>
       </c>
       <c r="AO28" s="20">
-        <f t="shared" si="15"/>
-        <v>90</v>
+        <f t="shared" si="14"/>
+        <v>92</v>
       </c>
       <c r="AP28" s="16">
         <v>1</v>
       </c>
       <c r="AQ28" s="49">
+        <f t="shared" si="15"/>
+        <v>93</v>
+      </c>
+      <c r="AR28" s="49">
         <f t="shared" si="16"/>
-        <v>91</v>
-      </c>
-      <c r="AR28" s="49">
+        <v>100</v>
+      </c>
+      <c r="AS28" s="49">
         <f t="shared" si="17"/>
-        <v>98</v>
-      </c>
-      <c r="AS28" s="49">
+        <v>107</v>
+      </c>
+      <c r="AT28" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="49">
         <f t="shared" si="18"/>
-        <v>105</v>
-      </c>
-      <c r="AT28" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV28" s="27">
         <v>16</v>
@@ -7972,12 +7972,12 @@
         <v>31</v>
       </c>
       <c r="Z29" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA29" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA29" s="24">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB29" s="19">
         <v>2</v>
@@ -7992,22 +7992,22 @@
         <v>35</v>
       </c>
       <c r="AF29" s="19">
-        <f t="shared" si="11"/>
-        <v>66</v>
+        <f t="shared" si="10"/>
+        <v>68</v>
       </c>
       <c r="AG29" s="25">
         <v>3</v>
       </c>
       <c r="AH29" s="25">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="AI29" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ29" s="20">
         <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="AI29" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ29" s="20">
-        <f t="shared" si="13"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK29" s="20" t="s">
         <v>76</v>
@@ -8016,37 +8016,37 @@
         <v>0</v>
       </c>
       <c r="AM29" s="49">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="AN29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="20">
         <f t="shared" si="14"/>
-        <v>76</v>
-      </c>
-      <c r="AN29" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="20">
-        <f t="shared" si="15"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AP29" s="16">
         <v>1</v>
       </c>
       <c r="AQ29" s="49">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="AR29" s="49">
         <f t="shared" si="16"/>
-        <v>77</v>
-      </c>
-      <c r="AR29" s="49">
+        <v>86</v>
+      </c>
+      <c r="AS29" s="49">
         <f t="shared" si="17"/>
-        <v>84</v>
-      </c>
-      <c r="AS29" s="49">
+        <v>93</v>
+      </c>
+      <c r="AT29" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="49">
         <f t="shared" si="18"/>
-        <v>91</v>
-      </c>
-      <c r="AT29" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU29" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV29" s="27">
         <v>16</v>
@@ -8162,12 +8162,12 @@
         <v>31</v>
       </c>
       <c r="Z30" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA30" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA30" s="24">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB30" s="19">
         <v>2</v>
@@ -8182,22 +8182,22 @@
         <v>57</v>
       </c>
       <c r="AF30" s="19">
-        <f t="shared" si="11"/>
-        <v>88</v>
+        <f t="shared" si="10"/>
+        <v>90</v>
       </c>
       <c r="AG30" s="25">
         <v>3</v>
       </c>
       <c r="AH30" s="25">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="AI30" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="20">
         <f t="shared" si="12"/>
-        <v>91</v>
-      </c>
-      <c r="AI30" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="20">
-        <f t="shared" si="13"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK30" s="20" t="s">
         <v>76</v>
@@ -8206,37 +8206,37 @@
         <v>1</v>
       </c>
       <c r="AM30" s="49">
-        <f t="shared" si="14"/>
-        <v>92</v>
+        <f t="shared" si="13"/>
+        <v>94</v>
       </c>
       <c r="AN30" s="19">
         <v>4</v>
       </c>
       <c r="AO30" s="20">
-        <f t="shared" si="15"/>
-        <v>96</v>
+        <f t="shared" si="14"/>
+        <v>98</v>
       </c>
       <c r="AP30" s="16">
         <v>2</v>
       </c>
       <c r="AQ30" s="49">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AR30" s="49">
         <f t="shared" si="16"/>
-        <v>98</v>
-      </c>
-      <c r="AR30" s="49">
+        <v>107</v>
+      </c>
+      <c r="AS30" s="49">
         <f t="shared" si="17"/>
-        <v>105</v>
-      </c>
-      <c r="AS30" s="49">
-        <f t="shared" si="18"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AT30" s="49">
         <v>16</v>
       </c>
       <c r="AU30" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="AV30" s="27">
         <v>16</v>
@@ -8352,12 +8352,12 @@
         <v>31</v>
       </c>
       <c r="Z31" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA31" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA31" s="24">
-        <f t="shared" si="10"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB31" s="19">
         <v>6</v>
@@ -8372,22 +8372,22 @@
         <v>44</v>
       </c>
       <c r="AF31" s="19">
-        <f t="shared" si="11"/>
-        <v>79</v>
+        <f t="shared" si="10"/>
+        <v>81</v>
       </c>
       <c r="AG31" s="25">
         <v>3</v>
       </c>
       <c r="AH31" s="25">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="AI31" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ31" s="20">
         <f t="shared" si="12"/>
-        <v>82</v>
-      </c>
-      <c r="AI31" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ31" s="20">
-        <f t="shared" si="13"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK31" s="20" t="s">
         <v>76</v>
@@ -8396,37 +8396,37 @@
         <v>3</v>
       </c>
       <c r="AM31" s="49">
-        <f t="shared" si="14"/>
-        <v>92</v>
+        <f t="shared" si="13"/>
+        <v>94</v>
       </c>
       <c r="AN31" s="19">
         <v>1</v>
       </c>
       <c r="AO31" s="20">
-        <f t="shared" si="15"/>
-        <v>93</v>
+        <f t="shared" si="14"/>
+        <v>95</v>
       </c>
       <c r="AP31" s="16">
         <v>6</v>
       </c>
       <c r="AQ31" s="49">
+        <f t="shared" si="15"/>
+        <v>101</v>
+      </c>
+      <c r="AR31" s="49">
         <f t="shared" si="16"/>
-        <v>99</v>
-      </c>
-      <c r="AR31" s="49">
+        <v>108</v>
+      </c>
+      <c r="AS31" s="49">
         <f t="shared" si="17"/>
-        <v>106</v>
-      </c>
-      <c r="AS31" s="49">
-        <f t="shared" si="18"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AT31" s="49">
         <v>17</v>
       </c>
       <c r="AU31" s="49">
-        <f t="shared" si="19"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>15</v>
       </c>
       <c r="AV31" s="27">
         <v>12</v>
@@ -8542,12 +8542,12 @@
         <v>31</v>
       </c>
       <c r="Z32" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA32" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA32" s="24">
-        <f t="shared" si="10"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB32" s="19">
         <v>3</v>
@@ -8562,22 +8562,22 @@
         <v>78</v>
       </c>
       <c r="AF32" s="19">
-        <f t="shared" si="11"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>112</v>
       </c>
       <c r="AG32" s="25">
         <v>3</v>
       </c>
       <c r="AH32" s="25">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="AI32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="20">
         <f t="shared" si="12"/>
-        <v>113</v>
-      </c>
-      <c r="AI32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="20">
-        <f t="shared" si="13"/>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK32" s="20" t="s">
         <v>76</v>
@@ -8586,37 +8586,37 @@
         <v>1</v>
       </c>
       <c r="AM32" s="49">
-        <f t="shared" si="14"/>
-        <v>114</v>
+        <f t="shared" si="13"/>
+        <v>116</v>
       </c>
       <c r="AN32" s="19">
         <v>1</v>
       </c>
       <c r="AO32" s="20">
-        <f t="shared" si="15"/>
-        <v>115</v>
+        <f t="shared" si="14"/>
+        <v>117</v>
       </c>
       <c r="AP32" s="16">
         <v>4</v>
       </c>
       <c r="AQ32" s="49">
+        <f t="shared" si="15"/>
+        <v>121</v>
+      </c>
+      <c r="AR32" s="49">
         <f t="shared" si="16"/>
-        <v>119</v>
-      </c>
-      <c r="AR32" s="49">
+        <v>128</v>
+      </c>
+      <c r="AS32" s="49">
         <f t="shared" si="17"/>
-        <v>126</v>
-      </c>
-      <c r="AS32" s="49">
-        <f t="shared" si="18"/>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AT32" s="49">
         <v>12</v>
       </c>
       <c r="AU32" s="49">
-        <f t="shared" si="19"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
       <c r="AV32" s="27">
         <v>10</v>
@@ -8732,12 +8732,12 @@
         <v>31</v>
       </c>
       <c r="Z33" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA33" s="24">
         <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="AA33" s="24">
-        <f t="shared" si="10"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB33" s="19">
         <v>2</v>
@@ -8752,22 +8752,22 @@
         <v>60</v>
       </c>
       <c r="AF33" s="19">
-        <f t="shared" si="11"/>
-        <v>91</v>
+        <f t="shared" si="10"/>
+        <v>93</v>
       </c>
       <c r="AG33" s="25">
         <v>3</v>
       </c>
       <c r="AH33" s="25">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="AI33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="20">
         <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="AI33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="20">
-        <f t="shared" si="13"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK33" s="20" t="s">
         <v>76</v>
@@ -8776,37 +8776,37 @@
         <v>2</v>
       </c>
       <c r="AM33" s="49">
-        <f t="shared" si="14"/>
-        <v>96</v>
+        <f t="shared" si="13"/>
+        <v>98</v>
       </c>
       <c r="AN33" s="19">
         <v>2</v>
       </c>
       <c r="AO33" s="20">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="AP33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="49">
         <f t="shared" si="15"/>
-        <v>98</v>
-      </c>
-      <c r="AP33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="49">
+        <v>100</v>
+      </c>
+      <c r="AR33" s="49">
         <f t="shared" si="16"/>
-        <v>98</v>
-      </c>
-      <c r="AR33" s="49">
+        <v>107</v>
+      </c>
+      <c r="AS33" s="49">
         <f t="shared" si="17"/>
-        <v>105</v>
-      </c>
-      <c r="AS33" s="49">
-        <f t="shared" si="18"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AT33" s="49">
         <v>13</v>
       </c>
       <c r="AU33" s="49">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="AV33" s="27">
         <v>16</v>
@@ -8922,12 +8922,12 @@
         <v>31</v>
       </c>
       <c r="Z34" s="24">
-        <f t="shared" ref="Z34:Z50" si="29">+Y34</f>
-        <v>31</v>
+        <f t="shared" si="19"/>
+        <v>33</v>
       </c>
       <c r="AA34" s="24">
-        <f t="shared" ref="AA34:AA50" si="30">+Z34+AB34-1</f>
-        <v>32</v>
+        <f t="shared" ref="AA34:AA50" si="29">+Z34+AB34-1</f>
+        <v>34</v>
       </c>
       <c r="AB34" s="19">
         <v>2</v>
@@ -8942,22 +8942,22 @@
         <v>62</v>
       </c>
       <c r="AF34" s="19">
-        <f t="shared" ref="AF34:AF50" si="31">+AE34+AA34-1</f>
-        <v>93</v>
+        <f t="shared" ref="AF34:AF50" si="30">+AE34+AA34-1</f>
+        <v>95</v>
       </c>
       <c r="AG34" s="25">
         <v>3</v>
       </c>
       <c r="AH34" s="25">
-        <f t="shared" ref="AH34:AH50" si="32">+AF34+AG34</f>
-        <v>96</v>
+        <f t="shared" ref="AH34:AH50" si="31">+AF34+AG34</f>
+        <v>98</v>
       </c>
       <c r="AI34" s="19">
         <v>0</v>
       </c>
       <c r="AJ34" s="20">
-        <f t="shared" ref="AJ34:AJ50" si="33">+AI34+AH34</f>
-        <v>96</v>
+        <f t="shared" ref="AJ34:AJ50" si="32">+AI34+AH34</f>
+        <v>98</v>
       </c>
       <c r="AK34" s="20" t="s">
         <v>76</v>
@@ -8966,37 +8966,37 @@
         <v>4</v>
       </c>
       <c r="AM34" s="49">
-        <f t="shared" ref="AM34:AM50" si="34">+AJ34+AL34</f>
-        <v>100</v>
+        <f t="shared" ref="AM34:AM50" si="33">+AJ34+AL34</f>
+        <v>102</v>
       </c>
       <c r="AN34" s="19">
         <v>2</v>
       </c>
       <c r="AO34" s="20">
-        <f t="shared" ref="AO34:AO50" si="35">+AM34+AN34</f>
-        <v>102</v>
+        <f t="shared" ref="AO34:AO50" si="34">+AM34+AN34</f>
+        <v>104</v>
       </c>
       <c r="AP34" s="16">
         <v>3</v>
       </c>
       <c r="AQ34" s="49">
-        <f t="shared" ref="AQ34:AQ50" si="36">+AO34+AP34</f>
-        <v>105</v>
+        <f t="shared" ref="AQ34:AQ50" si="35">+AO34+AP34</f>
+        <v>107</v>
       </c>
       <c r="AR34" s="49">
-        <f t="shared" ref="AR34:AR50" si="37">+AQ34+7</f>
-        <v>112</v>
+        <f t="shared" ref="AR34:AR50" si="36">+AQ34+7</f>
+        <v>114</v>
       </c>
       <c r="AS34" s="49">
-        <f t="shared" ref="AS34:AS50" si="38">+AR34+7+AT34</f>
-        <v>133</v>
+        <f t="shared" ref="AS34:AS50" si="37">+AR34+7+AT34</f>
+        <v>135</v>
       </c>
       <c r="AT34" s="49">
         <v>14</v>
       </c>
       <c r="AU34" s="49">
-        <f t="shared" ref="AU34:AU50" si="39">+AA34-R34</f>
-        <v>9</v>
+        <f t="shared" ref="AU34:AU50" si="38">+AA34-R34</f>
+        <v>11</v>
       </c>
       <c r="AV34" s="27">
         <v>16</v>
@@ -9112,12 +9112,12 @@
         <v>31</v>
       </c>
       <c r="Z35" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA35" s="24">
         <f t="shared" si="29"/>
-        <v>31</v>
-      </c>
-      <c r="AA35" s="24">
-        <f t="shared" si="30"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB35" s="19">
         <v>2</v>
@@ -9132,22 +9132,22 @@
         <v>57</v>
       </c>
       <c r="AF35" s="19">
-        <f t="shared" si="31"/>
-        <v>88</v>
+        <f t="shared" si="30"/>
+        <v>90</v>
       </c>
       <c r="AG35" s="25">
         <v>3</v>
       </c>
       <c r="AH35" s="25">
+        <f t="shared" si="31"/>
+        <v>93</v>
+      </c>
+      <c r="AI35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="20">
         <f t="shared" si="32"/>
-        <v>91</v>
-      </c>
-      <c r="AI35" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="20">
-        <f t="shared" si="33"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK35" s="20" t="s">
         <v>76</v>
@@ -9156,37 +9156,37 @@
         <v>2</v>
       </c>
       <c r="AM35" s="49">
-        <f t="shared" si="34"/>
-        <v>93</v>
+        <f t="shared" si="33"/>
+        <v>95</v>
       </c>
       <c r="AN35" s="19">
         <v>2</v>
       </c>
       <c r="AO35" s="20">
-        <f t="shared" si="35"/>
-        <v>95</v>
+        <f t="shared" si="34"/>
+        <v>97</v>
       </c>
       <c r="AP35" s="16">
         <v>3</v>
       </c>
       <c r="AQ35" s="49">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+      <c r="AR35" s="49">
         <f t="shared" si="36"/>
-        <v>98</v>
-      </c>
-      <c r="AR35" s="49">
+        <v>107</v>
+      </c>
+      <c r="AS35" s="49">
         <f t="shared" si="37"/>
-        <v>105</v>
-      </c>
-      <c r="AS35" s="49">
-        <f t="shared" si="38"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AT35" s="49">
         <v>10</v>
       </c>
       <c r="AU35" s="49">
-        <f t="shared" si="39"/>
-        <v>9</v>
+        <f t="shared" si="38"/>
+        <v>11</v>
       </c>
       <c r="AV35" s="27">
         <v>16</v>
@@ -9302,12 +9302,12 @@
         <v>31</v>
       </c>
       <c r="Z36" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA36" s="24">
         <f t="shared" si="29"/>
-        <v>31</v>
-      </c>
-      <c r="AA36" s="24">
-        <f t="shared" si="30"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB36" s="19">
         <v>2</v>
@@ -9322,22 +9322,22 @@
         <v>52</v>
       </c>
       <c r="AF36" s="19">
-        <f t="shared" si="31"/>
-        <v>83</v>
+        <f t="shared" si="30"/>
+        <v>85</v>
       </c>
       <c r="AG36" s="25">
         <v>3</v>
       </c>
       <c r="AH36" s="25">
+        <f t="shared" si="31"/>
+        <v>88</v>
+      </c>
+      <c r="AI36" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="20">
         <f t="shared" si="32"/>
-        <v>86</v>
-      </c>
-      <c r="AI36" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="20">
-        <f t="shared" si="33"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AK36" s="20" t="s">
         <v>76</v>
@@ -9346,37 +9346,37 @@
         <v>2</v>
       </c>
       <c r="AM36" s="49">
-        <f t="shared" si="34"/>
-        <v>88</v>
+        <f t="shared" si="33"/>
+        <v>90</v>
       </c>
       <c r="AN36" s="19">
         <v>3</v>
       </c>
       <c r="AO36" s="20">
+        <f t="shared" si="34"/>
+        <v>93</v>
+      </c>
+      <c r="AP36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="49">
         <f t="shared" si="35"/>
-        <v>91</v>
-      </c>
-      <c r="AP36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="49">
+        <v>93</v>
+      </c>
+      <c r="AR36" s="49">
         <f t="shared" si="36"/>
-        <v>91</v>
-      </c>
-      <c r="AR36" s="49">
+        <v>100</v>
+      </c>
+      <c r="AS36" s="49">
         <f t="shared" si="37"/>
-        <v>98</v>
-      </c>
-      <c r="AS36" s="49">
+        <v>107</v>
+      </c>
+      <c r="AT36" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="49">
         <f t="shared" si="38"/>
-        <v>105</v>
-      </c>
-      <c r="AT36" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="49">
-        <f t="shared" si="39"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV36" s="27">
         <v>16</v>
@@ -9492,12 +9492,12 @@
         <v>31</v>
       </c>
       <c r="Z37" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA37" s="24">
         <f t="shared" si="29"/>
-        <v>31</v>
-      </c>
-      <c r="AA37" s="24">
-        <f t="shared" si="30"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB37" s="19">
         <v>2</v>
@@ -9512,22 +9512,22 @@
         <v>62</v>
       </c>
       <c r="AF37" s="19">
-        <f t="shared" si="31"/>
-        <v>93</v>
+        <f t="shared" si="30"/>
+        <v>95</v>
       </c>
       <c r="AG37" s="25">
         <v>3</v>
       </c>
       <c r="AH37" s="25">
+        <f t="shared" si="31"/>
+        <v>98</v>
+      </c>
+      <c r="AI37" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ37" s="20">
         <f t="shared" si="32"/>
-        <v>96</v>
-      </c>
-      <c r="AI37" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ37" s="20">
-        <f t="shared" si="33"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AK37" s="20" t="s">
         <v>76</v>
@@ -9536,37 +9536,37 @@
         <v>3</v>
       </c>
       <c r="AM37" s="49">
-        <f t="shared" si="34"/>
-        <v>106</v>
+        <f t="shared" si="33"/>
+        <v>108</v>
       </c>
       <c r="AN37" s="19">
         <v>3</v>
       </c>
       <c r="AO37" s="20">
-        <f t="shared" si="35"/>
-        <v>109</v>
+        <f t="shared" si="34"/>
+        <v>111</v>
       </c>
       <c r="AP37" s="16">
         <v>3</v>
       </c>
       <c r="AQ37" s="49">
+        <f t="shared" si="35"/>
+        <v>114</v>
+      </c>
+      <c r="AR37" s="49">
         <f t="shared" si="36"/>
-        <v>112</v>
-      </c>
-      <c r="AR37" s="49">
+        <v>121</v>
+      </c>
+      <c r="AS37" s="49">
         <f t="shared" si="37"/>
-        <v>119</v>
-      </c>
-      <c r="AS37" s="49">
-        <f t="shared" si="38"/>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AT37" s="49">
         <v>8</v>
       </c>
       <c r="AU37" s="49">
-        <f t="shared" si="39"/>
-        <v>9</v>
+        <f t="shared" si="38"/>
+        <v>11</v>
       </c>
       <c r="AV37" s="27">
         <v>16</v>
@@ -9682,12 +9682,12 @@
         <v>31</v>
       </c>
       <c r="Z38" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA38" s="24">
         <f t="shared" si="29"/>
-        <v>31</v>
-      </c>
-      <c r="AA38" s="24">
-        <f t="shared" si="30"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB38" s="19">
         <v>5</v>
@@ -9702,22 +9702,22 @@
         <v>32</v>
       </c>
       <c r="AF38" s="19">
-        <f t="shared" si="31"/>
-        <v>66</v>
+        <f t="shared" si="30"/>
+        <v>68</v>
       </c>
       <c r="AG38" s="25">
         <v>3</v>
       </c>
       <c r="AH38" s="25">
+        <f t="shared" si="31"/>
+        <v>71</v>
+      </c>
+      <c r="AI38" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="20">
         <f t="shared" si="32"/>
-        <v>69</v>
-      </c>
-      <c r="AI38" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="20">
-        <f t="shared" si="33"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK38" s="20" t="s">
         <v>76</v>
@@ -9726,37 +9726,37 @@
         <v>6</v>
       </c>
       <c r="AM38" s="49">
-        <f t="shared" si="34"/>
-        <v>75</v>
+        <f t="shared" si="33"/>
+        <v>77</v>
       </c>
       <c r="AN38" s="19">
         <v>3</v>
       </c>
       <c r="AO38" s="20">
-        <f t="shared" si="35"/>
-        <v>78</v>
+        <f t="shared" si="34"/>
+        <v>80</v>
       </c>
       <c r="AP38" s="16">
         <v>2</v>
       </c>
       <c r="AQ38" s="49">
+        <f t="shared" si="35"/>
+        <v>82</v>
+      </c>
+      <c r="AR38" s="49">
         <f t="shared" si="36"/>
-        <v>80</v>
-      </c>
-      <c r="AR38" s="49">
+        <v>89</v>
+      </c>
+      <c r="AS38" s="49">
         <f t="shared" si="37"/>
-        <v>87</v>
-      </c>
-      <c r="AS38" s="49">
+        <v>96</v>
+      </c>
+      <c r="AT38" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="49">
         <f t="shared" si="38"/>
-        <v>94</v>
-      </c>
-      <c r="AT38" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="49">
-        <f t="shared" si="39"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV38" s="27">
         <v>16</v>
@@ -9872,12 +9872,12 @@
         <v>30</v>
       </c>
       <c r="Z39" s="24">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="AA39" s="24">
         <f t="shared" si="29"/>
-        <v>30</v>
-      </c>
-      <c r="AA39" s="24">
-        <f t="shared" si="30"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB39" s="19">
         <v>1</v>
@@ -9892,22 +9892,22 @@
         <v>58</v>
       </c>
       <c r="AF39" s="19">
-        <f t="shared" si="31"/>
-        <v>87</v>
+        <f t="shared" si="30"/>
+        <v>88</v>
       </c>
       <c r="AG39" s="25">
         <v>3</v>
       </c>
       <c r="AH39" s="25">
+        <f t="shared" si="31"/>
+        <v>91</v>
+      </c>
+      <c r="AI39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="20">
         <f t="shared" si="32"/>
-        <v>90</v>
-      </c>
-      <c r="AI39" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="20">
-        <f t="shared" si="33"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="20" t="s">
         <v>76</v>
@@ -9916,37 +9916,37 @@
         <v>2</v>
       </c>
       <c r="AM39" s="49">
+        <f t="shared" si="33"/>
+        <v>93</v>
+      </c>
+      <c r="AN39" s="19">
+        <v>7</v>
+      </c>
+      <c r="AO39" s="20">
         <f t="shared" si="34"/>
-        <v>92</v>
-      </c>
-      <c r="AN39" s="19">
-        <v>7</v>
-      </c>
-      <c r="AO39" s="20">
-        <f t="shared" si="35"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP39" s="16">
         <v>5</v>
       </c>
       <c r="AQ39" s="49">
+        <f t="shared" si="35"/>
+        <v>105</v>
+      </c>
+      <c r="AR39" s="49">
         <f t="shared" si="36"/>
-        <v>104</v>
-      </c>
-      <c r="AR39" s="49">
+        <v>112</v>
+      </c>
+      <c r="AS39" s="49">
         <f t="shared" si="37"/>
-        <v>111</v>
-      </c>
-      <c r="AS39" s="49">
+        <v>119</v>
+      </c>
+      <c r="AT39" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="49">
         <f t="shared" si="38"/>
-        <v>118</v>
-      </c>
-      <c r="AT39" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="49">
-        <f t="shared" si="39"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV39" s="27">
         <v>15</v>
@@ -10062,12 +10062,12 @@
         <v>30</v>
       </c>
       <c r="Z40" s="24">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="AA40" s="24">
         <f t="shared" si="29"/>
-        <v>30</v>
-      </c>
-      <c r="AA40" s="24">
-        <f t="shared" si="30"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB40" s="19">
         <v>6</v>
@@ -10082,22 +10082,22 @@
         <v>42</v>
       </c>
       <c r="AF40" s="19">
-        <f t="shared" si="31"/>
-        <v>76</v>
+        <f t="shared" si="30"/>
+        <v>77</v>
       </c>
       <c r="AG40" s="25">
         <v>3</v>
       </c>
       <c r="AH40" s="25">
+        <f t="shared" si="31"/>
+        <v>80</v>
+      </c>
+      <c r="AI40" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="20">
         <f t="shared" si="32"/>
-        <v>79</v>
-      </c>
-      <c r="AI40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="20">
-        <f t="shared" si="33"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK40" s="20" t="s">
         <v>76</v>
@@ -10106,37 +10106,37 @@
         <v>1</v>
       </c>
       <c r="AM40" s="49">
-        <f t="shared" si="34"/>
-        <v>80</v>
+        <f t="shared" si="33"/>
+        <v>81</v>
       </c>
       <c r="AN40" s="19">
         <v>1</v>
       </c>
       <c r="AO40" s="20">
-        <f t="shared" si="35"/>
-        <v>81</v>
+        <f t="shared" si="34"/>
+        <v>82</v>
       </c>
       <c r="AP40" s="16">
         <v>3</v>
       </c>
       <c r="AQ40" s="49">
+        <f t="shared" si="35"/>
+        <v>85</v>
+      </c>
+      <c r="AR40" s="49">
         <f t="shared" si="36"/>
-        <v>84</v>
-      </c>
-      <c r="AR40" s="49">
+        <v>92</v>
+      </c>
+      <c r="AS40" s="49">
         <f t="shared" si="37"/>
-        <v>91</v>
-      </c>
-      <c r="AS40" s="49">
+        <v>99</v>
+      </c>
+      <c r="AT40" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="49">
         <f t="shared" si="38"/>
-        <v>98</v>
-      </c>
-      <c r="AT40" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="49">
-        <f t="shared" si="39"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV40" s="27">
         <v>19</v>
@@ -10252,12 +10252,12 @@
         <v>30</v>
       </c>
       <c r="Z41" s="24">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="AA41" s="24">
         <f t="shared" si="29"/>
-        <v>30</v>
-      </c>
-      <c r="AA41" s="24">
-        <f t="shared" si="30"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB41" s="19">
         <v>4</v>
@@ -10272,22 +10272,22 @@
         <v>48</v>
       </c>
       <c r="AF41" s="19">
+        <f t="shared" si="30"/>
+        <v>81</v>
+      </c>
+      <c r="AG41" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="25">
         <f t="shared" si="31"/>
-        <v>80</v>
-      </c>
-      <c r="AG41" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="25">
+        <v>81</v>
+      </c>
+      <c r="AI41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="20">
         <f t="shared" si="32"/>
-        <v>80</v>
-      </c>
-      <c r="AI41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="20">
-        <f t="shared" si="33"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK41" s="20" t="s">
         <v>76</v>
@@ -10296,37 +10296,37 @@
         <v>3</v>
       </c>
       <c r="AM41" s="49">
-        <f t="shared" si="34"/>
-        <v>83</v>
+        <f t="shared" si="33"/>
+        <v>84</v>
       </c>
       <c r="AN41" s="19">
         <v>8</v>
       </c>
       <c r="AO41" s="20">
+        <f t="shared" si="34"/>
+        <v>92</v>
+      </c>
+      <c r="AP41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="49">
         <f t="shared" si="35"/>
-        <v>91</v>
-      </c>
-      <c r="AP41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="49">
+        <v>92</v>
+      </c>
+      <c r="AR41" s="49">
         <f t="shared" si="36"/>
-        <v>91</v>
-      </c>
-      <c r="AR41" s="49">
+        <v>99</v>
+      </c>
+      <c r="AS41" s="49">
         <f t="shared" si="37"/>
-        <v>98</v>
-      </c>
-      <c r="AS41" s="49">
+        <v>106</v>
+      </c>
+      <c r="AT41" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="49">
         <f t="shared" si="38"/>
-        <v>105</v>
-      </c>
-      <c r="AT41" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="49">
-        <f t="shared" si="39"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV41" s="27">
         <v>17</v>
@@ -10442,12 +10442,12 @@
         <v>31</v>
       </c>
       <c r="Z42" s="24">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AA42" s="24">
         <f t="shared" si="29"/>
-        <v>31</v>
-      </c>
-      <c r="AA42" s="24">
-        <f t="shared" si="30"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB42" s="19">
         <v>4</v>
@@ -10462,22 +10462,22 @@
         <v>53</v>
       </c>
       <c r="AF42" s="19">
-        <f t="shared" si="31"/>
-        <v>86</v>
+        <f t="shared" si="30"/>
+        <v>88</v>
       </c>
       <c r="AG42" s="25">
         <v>3</v>
       </c>
       <c r="AH42" s="25">
+        <f t="shared" si="31"/>
+        <v>91</v>
+      </c>
+      <c r="AI42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="20">
         <f t="shared" si="32"/>
-        <v>89</v>
-      </c>
-      <c r="AI42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="20">
-        <f t="shared" si="33"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK42" s="20" t="s">
         <v>71</v>
@@ -10486,37 +10486,37 @@
         <v>2</v>
       </c>
       <c r="AM42" s="49">
-        <f t="shared" si="34"/>
-        <v>91</v>
+        <f t="shared" si="33"/>
+        <v>93</v>
       </c>
       <c r="AN42" s="19">
         <v>2</v>
       </c>
       <c r="AO42" s="20">
-        <f t="shared" si="35"/>
-        <v>93</v>
+        <f t="shared" si="34"/>
+        <v>95</v>
       </c>
       <c r="AP42" s="16">
         <v>4</v>
       </c>
       <c r="AQ42" s="49">
+        <f t="shared" si="35"/>
+        <v>99</v>
+      </c>
+      <c r="AR42" s="49">
         <f t="shared" si="36"/>
-        <v>97</v>
-      </c>
-      <c r="AR42" s="49">
+        <v>106</v>
+      </c>
+      <c r="AS42" s="49">
         <f t="shared" si="37"/>
-        <v>104</v>
-      </c>
-      <c r="AS42" s="49">
-        <f t="shared" si="38"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AT42" s="49">
         <v>9</v>
       </c>
       <c r="AU42" s="49">
-        <f t="shared" si="39"/>
-        <v>11</v>
+        <f t="shared" si="38"/>
+        <v>13</v>
       </c>
       <c r="AV42" s="27">
         <v>12</v>
@@ -10632,12 +10632,12 @@
         <v>33</v>
       </c>
       <c r="Z43" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA43" s="24">
         <f t="shared" si="29"/>
-        <v>33</v>
-      </c>
-      <c r="AA43" s="24">
-        <f t="shared" si="30"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AB43" s="19">
         <v>5</v>
@@ -10652,22 +10652,22 @@
         <v>43</v>
       </c>
       <c r="AF43" s="19">
-        <f t="shared" si="31"/>
-        <v>79</v>
+        <f t="shared" si="30"/>
+        <v>83</v>
       </c>
       <c r="AG43" s="25">
         <v>3</v>
       </c>
       <c r="AH43" s="25">
-        <f t="shared" si="32"/>
-        <v>82</v>
+        <f t="shared" si="31"/>
+        <v>86</v>
       </c>
       <c r="AI43" s="19">
         <v>14</v>
       </c>
       <c r="AJ43" s="20">
-        <f t="shared" si="33"/>
-        <v>96</v>
+        <f t="shared" si="32"/>
+        <v>100</v>
       </c>
       <c r="AK43" s="20" t="s">
         <v>71</v>
@@ -10676,37 +10676,37 @@
         <v>2</v>
       </c>
       <c r="AM43" s="49">
-        <f t="shared" si="34"/>
-        <v>98</v>
+        <f t="shared" si="33"/>
+        <v>102</v>
       </c>
       <c r="AN43" s="19">
         <v>2</v>
       </c>
       <c r="AO43" s="20">
+        <f t="shared" si="34"/>
+        <v>104</v>
+      </c>
+      <c r="AP43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="49">
         <f t="shared" si="35"/>
-        <v>100</v>
-      </c>
-      <c r="AP43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="49">
+        <v>104</v>
+      </c>
+      <c r="AR43" s="49">
         <f t="shared" si="36"/>
-        <v>100</v>
-      </c>
-      <c r="AR43" s="49">
+        <v>111</v>
+      </c>
+      <c r="AS43" s="49">
         <f t="shared" si="37"/>
-        <v>107</v>
-      </c>
-      <c r="AS43" s="49">
-        <f t="shared" si="38"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AT43" s="49">
         <v>15</v>
       </c>
       <c r="AU43" s="49">
-        <f t="shared" si="39"/>
-        <v>14</v>
+        <f t="shared" si="38"/>
+        <v>18</v>
       </c>
       <c r="AV43" s="27">
         <v>12</v>
@@ -10822,12 +10822,12 @@
         <v>25</v>
       </c>
       <c r="Z44" s="24">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="AA44" s="24">
         <f t="shared" si="29"/>
-        <v>25</v>
-      </c>
-      <c r="AA44" s="24">
-        <f t="shared" si="30"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB44" s="19">
         <v>5</v>
@@ -10842,22 +10842,22 @@
         <v>21</v>
       </c>
       <c r="AF44" s="19">
-        <f t="shared" si="31"/>
-        <v>49</v>
+        <f t="shared" si="30"/>
+        <v>52</v>
       </c>
       <c r="AG44" s="25">
         <v>3</v>
       </c>
       <c r="AH44" s="25">
+        <f t="shared" si="31"/>
+        <v>55</v>
+      </c>
+      <c r="AI44" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ44" s="20">
         <f t="shared" si="32"/>
-        <v>52</v>
-      </c>
-      <c r="AI44" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ44" s="20">
-        <f t="shared" si="33"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AK44" s="20" t="s">
         <v>95</v>
@@ -10866,37 +10866,37 @@
         <v>1</v>
       </c>
       <c r="AM44" s="49">
-        <f t="shared" si="34"/>
-        <v>60</v>
+        <f t="shared" si="33"/>
+        <v>63</v>
       </c>
       <c r="AN44" s="19">
         <v>1</v>
       </c>
       <c r="AO44" s="20">
-        <f t="shared" si="35"/>
-        <v>61</v>
+        <f t="shared" si="34"/>
+        <v>64</v>
       </c>
       <c r="AP44" s="16">
         <v>3</v>
       </c>
       <c r="AQ44" s="49">
+        <f t="shared" si="35"/>
+        <v>67</v>
+      </c>
+      <c r="AR44" s="49">
         <f t="shared" si="36"/>
-        <v>64</v>
-      </c>
-      <c r="AR44" s="49">
+        <v>74</v>
+      </c>
+      <c r="AS44" s="49">
         <f t="shared" si="37"/>
-        <v>71</v>
-      </c>
-      <c r="AS44" s="49">
+        <v>81</v>
+      </c>
+      <c r="AT44" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="49">
         <f t="shared" si="38"/>
-        <v>78</v>
-      </c>
-      <c r="AT44" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU44" s="49">
-        <f t="shared" si="39"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV44" s="27">
         <v>12</v>
@@ -11012,12 +11012,12 @@
         <v>33</v>
       </c>
       <c r="Z45" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA45" s="24">
         <f t="shared" si="29"/>
-        <v>33</v>
-      </c>
-      <c r="AA45" s="24">
-        <f t="shared" si="30"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB45" s="19">
         <v>6</v>
@@ -11032,22 +11032,22 @@
         <v>13</v>
       </c>
       <c r="AF45" s="19">
-        <f t="shared" si="31"/>
-        <v>50</v>
+        <f t="shared" si="30"/>
+        <v>54</v>
       </c>
       <c r="AG45" s="25">
         <v>3</v>
       </c>
       <c r="AH45" s="25">
+        <f t="shared" si="31"/>
+        <v>57</v>
+      </c>
+      <c r="AI45" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ45" s="20">
         <f t="shared" si="32"/>
-        <v>53</v>
-      </c>
-      <c r="AI45" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ45" s="20">
-        <f t="shared" si="33"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AK45" s="20" t="s">
         <v>76</v>
@@ -11056,37 +11056,37 @@
         <v>0</v>
       </c>
       <c r="AM45" s="49">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="AN45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="20">
         <f t="shared" si="34"/>
-        <v>60</v>
-      </c>
-      <c r="AN45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="20">
-        <f t="shared" si="35"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AP45" s="16">
         <v>5</v>
       </c>
       <c r="AQ45" s="49">
+        <f t="shared" si="35"/>
+        <v>69</v>
+      </c>
+      <c r="AR45" s="49">
         <f t="shared" si="36"/>
-        <v>65</v>
-      </c>
-      <c r="AR45" s="49">
+        <v>76</v>
+      </c>
+      <c r="AS45" s="49">
         <f t="shared" si="37"/>
-        <v>72</v>
-      </c>
-      <c r="AS45" s="49">
+        <v>83</v>
+      </c>
+      <c r="AT45" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="49">
         <f t="shared" si="38"/>
-        <v>79</v>
-      </c>
-      <c r="AT45" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="49">
-        <f t="shared" si="39"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AV45" s="27">
         <v>13</v>
@@ -11202,12 +11202,12 @@
         <v>33</v>
       </c>
       <c r="Z46" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA46" s="24">
         <f t="shared" si="29"/>
-        <v>33</v>
-      </c>
-      <c r="AA46" s="24">
-        <f t="shared" si="30"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB46" s="19">
         <v>6</v>
@@ -11222,22 +11222,22 @@
         <v>32</v>
       </c>
       <c r="AF46" s="19">
-        <f t="shared" si="31"/>
-        <v>69</v>
+        <f t="shared" si="30"/>
+        <v>73</v>
       </c>
       <c r="AG46" s="25">
         <v>3</v>
       </c>
       <c r="AH46" s="25">
+        <f t="shared" si="31"/>
+        <v>76</v>
+      </c>
+      <c r="AI46" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ46" s="20">
         <f t="shared" si="32"/>
-        <v>72</v>
-      </c>
-      <c r="AI46" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ46" s="20">
-        <f t="shared" si="33"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AK46" s="20" t="s">
         <v>76</v>
@@ -11246,37 +11246,37 @@
         <v>2</v>
       </c>
       <c r="AM46" s="49">
-        <f t="shared" si="34"/>
-        <v>81</v>
+        <f t="shared" si="33"/>
+        <v>85</v>
       </c>
       <c r="AN46" s="19">
         <v>2</v>
       </c>
       <c r="AO46" s="20">
-        <f t="shared" si="35"/>
-        <v>83</v>
+        <f t="shared" si="34"/>
+        <v>87</v>
       </c>
       <c r="AP46" s="16">
         <v>3</v>
       </c>
       <c r="AQ46" s="49">
+        <f t="shared" si="35"/>
+        <v>90</v>
+      </c>
+      <c r="AR46" s="49">
         <f t="shared" si="36"/>
-        <v>86</v>
-      </c>
-      <c r="AR46" s="49">
+        <v>97</v>
+      </c>
+      <c r="AS46" s="49">
         <f t="shared" si="37"/>
-        <v>93</v>
-      </c>
-      <c r="AS46" s="49">
+        <v>104</v>
+      </c>
+      <c r="AT46" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="49">
         <f t="shared" si="38"/>
-        <v>100</v>
-      </c>
-      <c r="AT46" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU46" s="49">
-        <f t="shared" si="39"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AV46" s="27">
         <v>13</v>
@@ -11392,12 +11392,12 @@
         <v>33</v>
       </c>
       <c r="Z47" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA47" s="24">
         <f t="shared" si="29"/>
-        <v>33</v>
-      </c>
-      <c r="AA47" s="24">
-        <f t="shared" si="30"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AB47" s="19">
         <v>3</v>
@@ -11412,22 +11412,22 @@
         <v>28</v>
       </c>
       <c r="AF47" s="19">
-        <f t="shared" si="31"/>
-        <v>62</v>
+        <f t="shared" si="30"/>
+        <v>66</v>
       </c>
       <c r="AG47" s="25">
         <v>3</v>
       </c>
       <c r="AH47" s="25">
+        <f t="shared" si="31"/>
+        <v>69</v>
+      </c>
+      <c r="AI47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="20">
         <f t="shared" si="32"/>
-        <v>65</v>
-      </c>
-      <c r="AI47" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="20">
-        <f t="shared" si="33"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AK47" s="20" t="s">
         <v>76</v>
@@ -11436,37 +11436,37 @@
         <v>2</v>
       </c>
       <c r="AM47" s="49">
-        <f t="shared" si="34"/>
-        <v>67</v>
+        <f t="shared" si="33"/>
+        <v>71</v>
       </c>
       <c r="AN47" s="19">
         <v>2</v>
       </c>
       <c r="AO47" s="20">
-        <f t="shared" si="35"/>
-        <v>69</v>
+        <f t="shared" si="34"/>
+        <v>73</v>
       </c>
       <c r="AP47" s="16">
         <v>1</v>
       </c>
       <c r="AQ47" s="49">
+        <f t="shared" si="35"/>
+        <v>74</v>
+      </c>
+      <c r="AR47" s="49">
         <f t="shared" si="36"/>
-        <v>70</v>
-      </c>
-      <c r="AR47" s="49">
+        <v>81</v>
+      </c>
+      <c r="AS47" s="49">
         <f t="shared" si="37"/>
-        <v>77</v>
-      </c>
-      <c r="AS47" s="49">
+        <v>88</v>
+      </c>
+      <c r="AT47" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="49">
         <f t="shared" si="38"/>
-        <v>84</v>
-      </c>
-      <c r="AT47" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU47" s="49">
-        <f t="shared" si="39"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AV47" s="27">
         <v>17</v>
@@ -11582,11 +11582,11 @@
         <v>29</v>
       </c>
       <c r="Z48" s="24">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="AA48" s="24">
         <f t="shared" si="29"/>
-        <v>29</v>
-      </c>
-      <c r="AA48" s="24">
-        <f t="shared" si="30"/>
         <v>31</v>
       </c>
       <c r="AB48" s="19">
@@ -11602,23 +11602,23 @@
         <v>35</v>
       </c>
       <c r="AF48" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>65</v>
       </c>
       <c r="AG48" s="25">
         <v>3</v>
       </c>
       <c r="AH48" s="25">
+        <f t="shared" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="AI48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="20">
         <f t="shared" si="32"/>
         <v>68</v>
       </c>
-      <c r="AI48" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="20">
-        <f t="shared" si="33"/>
-        <v>68</v>
-      </c>
       <c r="AK48" s="20" t="s">
         <v>81</v>
       </c>
@@ -11626,36 +11626,36 @@
         <v>2</v>
       </c>
       <c r="AM48" s="49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>70</v>
       </c>
       <c r="AN48" s="19">
         <v>2</v>
       </c>
       <c r="AO48" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>72</v>
       </c>
       <c r="AP48" s="16">
         <v>3</v>
       </c>
       <c r="AQ48" s="49">
+        <f t="shared" si="35"/>
+        <v>75</v>
+      </c>
+      <c r="AR48" s="49">
         <f t="shared" si="36"/>
-        <v>75</v>
-      </c>
-      <c r="AR48" s="49">
+        <v>82</v>
+      </c>
+      <c r="AS48" s="49">
         <f t="shared" si="37"/>
-        <v>82</v>
-      </c>
-      <c r="AS48" s="49">
+        <v>89</v>
+      </c>
+      <c r="AT48" s="49">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="49">
         <f t="shared" si="38"/>
-        <v>89</v>
-      </c>
-      <c r="AT48" s="49">
-        <v>0</v>
-      </c>
-      <c r="AU48" s="49">
-        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="AV48" s="27">
@@ -11772,12 +11772,12 @@
         <v>33</v>
       </c>
       <c r="Z49" s="24">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="AA49" s="24">
         <f t="shared" si="29"/>
-        <v>33</v>
-      </c>
-      <c r="AA49" s="24">
-        <f t="shared" si="30"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AB49" s="19">
         <v>5</v>
@@ -11792,22 +11792,22 @@
         <v>43</v>
       </c>
       <c r="AF49" s="19">
-        <f t="shared" si="31"/>
-        <v>79</v>
+        <f t="shared" si="30"/>
+        <v>83</v>
       </c>
       <c r="AG49" s="25">
         <v>3</v>
       </c>
       <c r="AH49" s="25">
+        <f t="shared" si="31"/>
+        <v>86</v>
+      </c>
+      <c r="AI49" s="19">
+        <v>7</v>
+      </c>
+      <c r="AJ49" s="20">
         <f t="shared" si="32"/>
-        <v>82</v>
-      </c>
-      <c r="AI49" s="19">
-        <v>7</v>
-      </c>
-      <c r="AJ49" s="20">
-        <f t="shared" si="33"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AK49" s="20" t="s">
         <v>95</v>
@@ -11816,37 +11816,37 @@
         <v>2</v>
       </c>
       <c r="AM49" s="49">
-        <f t="shared" si="34"/>
-        <v>91</v>
+        <f t="shared" si="33"/>
+        <v>95</v>
       </c>
       <c r="AN49" s="19">
         <v>2</v>
       </c>
       <c r="AO49" s="20">
+        <f t="shared" si="34"/>
+        <v>97</v>
+      </c>
+      <c r="AP49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="49">
         <f t="shared" si="35"/>
-        <v>93</v>
-      </c>
-      <c r="AP49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="49">
+        <v>97</v>
+      </c>
+      <c r="AR49" s="49">
         <f t="shared" si="36"/>
-        <v>93</v>
-      </c>
-      <c r="AR49" s="49">
+        <v>104</v>
+      </c>
+      <c r="AS49" s="49">
         <f t="shared" si="37"/>
-        <v>100</v>
-      </c>
-      <c r="AS49" s="49">
-        <f t="shared" si="38"/>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AT49" s="49">
         <v>16</v>
       </c>
       <c r="AU49" s="49">
-        <f t="shared" si="39"/>
-        <v>14</v>
+        <f t="shared" si="38"/>
+        <v>18</v>
       </c>
       <c r="AV49" s="27">
         <v>12</v>
@@ -11962,12 +11962,12 @@
         <v>26</v>
       </c>
       <c r="Z50" s="24">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="AA50" s="24">
         <f t="shared" si="29"/>
-        <v>26</v>
-      </c>
-      <c r="AA50" s="24">
-        <f t="shared" si="30"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB50" s="19">
         <v>3</v>
@@ -11982,22 +11982,22 @@
         <v>34</v>
       </c>
       <c r="AF50" s="19">
-        <f t="shared" si="31"/>
-        <v>61</v>
+        <f t="shared" si="30"/>
+        <v>65</v>
       </c>
       <c r="AG50" s="25">
         <v>3</v>
       </c>
       <c r="AH50" s="25">
+        <f t="shared" si="31"/>
+        <v>68</v>
+      </c>
+      <c r="AI50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="20">
         <f t="shared" si="32"/>
-        <v>64</v>
-      </c>
-      <c r="AI50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="20">
-        <f t="shared" si="33"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AK50" s="20" t="s">
         <v>76</v>
@@ -12006,37 +12006,37 @@
         <v>2</v>
       </c>
       <c r="AM50" s="49">
-        <f t="shared" si="34"/>
-        <v>66</v>
+        <f t="shared" si="33"/>
+        <v>70</v>
       </c>
       <c r="AN50" s="19">
         <v>2</v>
       </c>
       <c r="AO50" s="20">
-        <f t="shared" si="35"/>
-        <v>68</v>
+        <f t="shared" si="34"/>
+        <v>72</v>
       </c>
       <c r="AP50" s="16">
         <v>4</v>
       </c>
       <c r="AQ50" s="49">
+        <f t="shared" si="35"/>
+        <v>76</v>
+      </c>
+      <c r="AR50" s="49">
         <f t="shared" si="36"/>
-        <v>72</v>
-      </c>
-      <c r="AR50" s="49">
+        <v>83</v>
+      </c>
+      <c r="AS50" s="49">
         <f t="shared" si="37"/>
-        <v>79</v>
-      </c>
-      <c r="AS50" s="49">
-        <f t="shared" si="38"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AT50" s="49">
         <v>14</v>
       </c>
       <c r="AU50" s="49">
-        <f t="shared" si="39"/>
-        <v>12</v>
+        <f t="shared" si="38"/>
+        <v>16</v>
       </c>
       <c r="AV50" s="27">
         <v>17</v>
@@ -12101,60 +12101,60 @@
         <v>8</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" ref="M51" si="40">+IF(I51="SFK Freight Forwarder",0,9)</f>
+        <f t="shared" ref="M51" si="39">+IF(I51="SFK Freight Forwarder",0,9)</f>
         <v>9</v>
       </c>
       <c r="N51" s="19">
         <v>8</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" ref="O51" si="41">IF(I51="SFK Freight Forwarder",0,M51+N51-1)</f>
+        <f t="shared" ref="O51" si="40">IF(I51="SFK Freight Forwarder",0,M51+N51-1)</f>
         <v>16</v>
       </c>
       <c r="P51" s="19">
-        <f t="shared" ref="P51" si="42">+IF(I51="SFK Freight Forwarder",0,5)</f>
+        <f t="shared" ref="P51" si="41">+IF(I51="SFK Freight Forwarder",0,5)</f>
         <v>5</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" ref="Q51" si="43">+IF(I51="SFK Freight Forwarder",0,O51+P51-1)</f>
+        <f t="shared" ref="Q51" si="42">+IF(I51="SFK Freight Forwarder",0,O51+P51-1)</f>
         <v>20</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" ref="R51" si="44">9+N51</f>
+        <f t="shared" ref="R51" si="43">9+N51</f>
         <v>17</v>
       </c>
       <c r="S51" s="19">
         <v>8</v>
       </c>
       <c r="T51" s="19">
-        <f t="shared" ref="T51" si="45">+R51+S51-1</f>
+        <f t="shared" ref="T51" si="44">+R51+S51-1</f>
         <v>24</v>
       </c>
       <c r="U51" s="19">
-        <f t="shared" ref="U51" si="46">+T51+1</f>
+        <f t="shared" ref="U51" si="45">+T51+1</f>
         <v>25</v>
       </c>
       <c r="V51" s="19">
         <v>2</v>
       </c>
       <c r="W51" s="20">
-        <f t="shared" ref="W51" si="47">+U51+V51-1</f>
+        <f t="shared" ref="W51" si="46">+U51+V51-1</f>
         <v>26</v>
       </c>
       <c r="X51" s="20">
         <v>6</v>
       </c>
       <c r="Y51" s="20">
-        <f t="shared" ref="Y51" si="48">+ROUNDDOWN(W51/7,0)*7+X51</f>
+        <f t="shared" ref="Y51" si="47">+ROUNDDOWN(W51/7,0)*7+X51</f>
         <v>27</v>
       </c>
       <c r="Z51" s="24">
-        <f t="shared" ref="Z51" si="49">+Y51</f>
-        <v>27</v>
+        <f t="shared" si="19"/>
+        <v>32</v>
       </c>
       <c r="AA51" s="24">
-        <f t="shared" ref="AA51" si="50">+Z51+AB51-1</f>
-        <v>29</v>
+        <f t="shared" ref="AA51" si="48">+Z51+AB51-1</f>
+        <v>34</v>
       </c>
       <c r="AB51" s="19">
         <v>3</v>
@@ -12169,22 +12169,22 @@
         <v>50</v>
       </c>
       <c r="AF51" s="19">
-        <f t="shared" ref="AF51" si="51">+AE51+AA51-1</f>
-        <v>78</v>
+        <f t="shared" ref="AF51" si="49">+AE51+AA51-1</f>
+        <v>83</v>
       </c>
       <c r="AG51" s="25">
         <v>4</v>
       </c>
       <c r="AH51" s="25">
-        <f t="shared" ref="AH51" si="52">+AF51+AG51</f>
-        <v>82</v>
+        <f t="shared" ref="AH51" si="50">+AF51+AG51</f>
+        <v>87</v>
       </c>
       <c r="AI51" s="19">
         <v>1</v>
       </c>
       <c r="AJ51" s="20">
-        <f t="shared" ref="AJ51" si="53">+AI51+AH51</f>
-        <v>83</v>
+        <f t="shared" ref="AJ51" si="51">+AI51+AH51</f>
+        <v>88</v>
       </c>
       <c r="AK51" s="20" t="s">
         <v>76</v>
@@ -12193,37 +12193,37 @@
         <v>3</v>
       </c>
       <c r="AM51" s="49">
-        <f t="shared" ref="AM51" si="54">+AJ51+AL51</f>
-        <v>86</v>
+        <f t="shared" ref="AM51" si="52">+AJ51+AL51</f>
+        <v>91</v>
       </c>
       <c r="AN51" s="19">
         <v>3</v>
       </c>
       <c r="AO51" s="20">
-        <f t="shared" ref="AO51" si="55">+AM51+AN51</f>
-        <v>89</v>
+        <f t="shared" ref="AO51" si="53">+AM51+AN51</f>
+        <v>94</v>
       </c>
       <c r="AP51" s="16">
         <v>5</v>
       </c>
       <c r="AQ51" s="49">
-        <f t="shared" ref="AQ51" si="56">+AO51+AP51</f>
-        <v>94</v>
+        <f t="shared" ref="AQ51" si="54">+AO51+AP51</f>
+        <v>99</v>
       </c>
       <c r="AR51" s="49">
-        <f t="shared" ref="AR51" si="57">+AQ51+7</f>
-        <v>101</v>
+        <f t="shared" ref="AR51" si="55">+AQ51+7</f>
+        <v>106</v>
       </c>
       <c r="AS51" s="49">
-        <f t="shared" ref="AS51" si="58">+AR51+7+AT51</f>
-        <v>123</v>
+        <f t="shared" ref="AS51" si="56">+AR51+7+AT51</f>
+        <v>128</v>
       </c>
       <c r="AT51" s="49">
         <v>15</v>
       </c>
       <c r="AU51" s="49">
-        <f t="shared" ref="AU51" si="59">+AA51-R51</f>
-        <v>12</v>
+        <f t="shared" ref="AU51" si="57">+AA51-R51</f>
+        <v>17</v>
       </c>
       <c r="AV51" s="27">
         <v>17</v>
@@ -12257,7 +12257,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:BD51" xr:uid="{869D9611-F0E3-4A7A-9239-9C1FA0F0C8DA}"/>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A2:BC2 A3:AZ50 BA3:BC51 A51 C51:AZ51">
+  <conditionalFormatting sqref="A2:BC2 A3:Y50 A51 C51:Y51 Z3:BC51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$BD2&lt;=TODAY()</formula>
     </cfRule>

--- a/VTT Tool/VTT DATA.xlsx
+++ b/VTT Tool/VTT DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OLMEDOJorge\Documents\Python projects\Horse Luis\VTT Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C041BB-17AA-4EF6-B742-8BA82977C887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CE09E7-E082-4862-B417-FA2F899F1F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F9BAF1D-C4F9-4C63-99BA-ADCB8DC6383A}"/>
   </bookViews>
@@ -2556,10 +2556,10 @@
   <dimension ref="A1:BD51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomRight" activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VTT Tool/VTT DATA.xlsx
+++ b/VTT Tool/VTT DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OLMEDOJorge\Documents\Python projects\Horse Luis\VTT Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030D667-EB4B-4252-B610-B100ADE3D86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E9F99A-D912-419B-A4F2-1EED93DA787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F9BAF1D-C4F9-4C63-99BA-ADCB8DC6383A}"/>
   </bookViews>

--- a/VTT Tool/VTT DATA.xlsx
+++ b/VTT Tool/VTT DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OLMEDOJorge\Documents\Python projects\Horse Luis\VTT Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E9F99A-D912-419B-A4F2-1EED93DA787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B625301-F6F2-4413-8C13-0B4C7EBA3F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F9BAF1D-C4F9-4C63-99BA-ADCB8DC6383A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="VTT actif" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VTT actif'!$A$1:$BD$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VTT actif'!$A$1:$BD$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1123,14 +1123,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{432BBFD9-EC83-40A5-8B27-79052821547A}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1460,16 +1453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869D9611-F0E3-4A7A-9239-9C1FA0F0C8DA}">
-  <sheetPr codeName="Feuil4">
+  <sheetPr codeName="Feuil4" filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:BD51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="AP20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="AN48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY52" sqref="AY52"/>
+      <selection pane="bottomRight" activeCell="AP48" sqref="AP48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,7 +1658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>416</v>
       </c>
@@ -1855,7 +1848,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>901</v>
       </c>
@@ -1941,7 +1934,7 @@
         <v>26</v>
       </c>
       <c r="Z3" s="7">
-        <f t="shared" ref="Z3:Z51" si="19">+Y3+X3-1</f>
+        <f t="shared" ref="Z3:Z50" si="19">+Y3+X3-1</f>
         <v>30</v>
       </c>
       <c r="AA3" s="7">
@@ -2045,7 +2038,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>916</v>
       </c>
@@ -2235,7 +2228,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>752</v>
       </c>
@@ -2425,7 +2418,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>761</v>
       </c>
@@ -2615,7 +2608,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>927</v>
       </c>
@@ -2805,7 +2798,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>930</v>
       </c>
@@ -2995,7 +2988,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>931</v>
       </c>
@@ -3185,7 +3178,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>932</v>
       </c>
@@ -3375,7 +3368,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>1027</v>
       </c>
@@ -3565,7 +3558,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1045</v>
       </c>
@@ -3755,7 +3748,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1060</v>
       </c>
@@ -3945,7 +3938,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>233</v>
       </c>
@@ -4136,7 +4129,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>928</v>
       </c>
@@ -4326,7 +4319,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>926</v>
       </c>
@@ -4516,7 +4509,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>981</v>
       </c>
@@ -4706,7 +4699,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>120</v>
       </c>
@@ -4896,7 +4889,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>915</v>
       </c>
@@ -5086,7 +5079,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>917</v>
       </c>
@@ -5276,7 +5269,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>918</v>
       </c>
@@ -5466,7 +5459,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>925</v>
       </c>
@@ -5656,7 +5649,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>121</v>
       </c>
@@ -5846,7 +5839,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>912</v>
       </c>
@@ -6036,7 +6029,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>920</v>
       </c>
@@ -6226,7 +6219,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>921</v>
       </c>
@@ -6416,7 +6409,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1001</v>
       </c>
@@ -6606,7 +6599,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>1063</v>
       </c>
@@ -6796,7 +6789,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1005</v>
       </c>
@@ -6986,7 +6979,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>1006</v>
       </c>
@@ -7176,7 +7169,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1007</v>
       </c>
@@ -7366,7 +7359,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>1008</v>
       </c>
@@ -7556,7 +7549,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>1009</v>
       </c>
@@ -7746,7 +7739,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>1010</v>
       </c>
@@ -7936,7 +7929,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>1012</v>
       </c>
@@ -8126,7 +8119,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>1034</v>
       </c>
@@ -8316,7 +8309,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>1037</v>
       </c>
@@ -8506,7 +8499,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>1040</v>
       </c>
@@ -8696,7 +8689,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1029</v>
       </c>
@@ -8886,7 +8879,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>1032</v>
       </c>
@@ -9076,7 +9069,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>1033</v>
       </c>
@@ -9266,7 +9259,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>904</v>
       </c>
@@ -9456,7 +9449,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>906</v>
       </c>
@@ -9646,7 +9639,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>924</v>
       </c>
@@ -9836,7 +9829,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>1014</v>
       </c>
@@ -10026,7 +10019,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>1015</v>
       </c>
@@ -10216,7 +10209,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>1036</v>
       </c>
@@ -10485,19 +10478,19 @@
         <v>31</v>
       </c>
       <c r="X48" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y48" s="4">
         <f t="shared" si="28"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="19"/>
-        <v>29</v>
+        <f>+Y48+X48-6</f>
+        <v>38</v>
       </c>
       <c r="AA48" s="7">
         <f t="shared" si="29"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AB48" s="4">
         <v>3</v>
@@ -10513,21 +10506,21 @@
       </c>
       <c r="AF48" s="4">
         <f t="shared" si="30"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AG48" s="7">
         <v>3</v>
       </c>
       <c r="AH48" s="7">
         <f t="shared" si="31"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AI48" s="4">
         <v>0</v>
       </c>
       <c r="AJ48" s="4">
         <f t="shared" si="32"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AK48" s="4" t="s">
         <v>81</v>
@@ -10537,36 +10530,36 @@
       </c>
       <c r="AM48" s="4">
         <f t="shared" si="33"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AN48" s="4">
         <v>2</v>
       </c>
       <c r="AO48" s="4">
         <f t="shared" si="34"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AP48" s="4">
         <v>3</v>
       </c>
       <c r="AQ48" s="4">
         <f t="shared" si="35"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AR48" s="4">
         <f t="shared" si="36"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AS48" s="4">
         <f t="shared" si="37"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AT48" s="4">
         <v>0</v>
       </c>
       <c r="AU48" s="4">
         <f t="shared" si="38"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AV48" s="4">
         <v>17</v>
@@ -10596,7 +10589,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>908</v>
       </c>
@@ -10786,7 +10779,7 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>907</v>
       </c>
@@ -10977,11 +10970,11 @@
         <v>46142</v>
       </c>
     </row>
-    <row r="51" spans="1:56" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>1085</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="31" t="s">
         <v>154</v>
       </c>
       <c r="C51" s="33" t="s">
@@ -11161,16 +11154,22 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:BD50" xr:uid="{869D9611-F0E3-4A7A-9239-9C1FA0F0C8DA}"/>
+  <autoFilter ref="A1:BD51" xr:uid="{869D9611-F0E3-4A7A-9239-9C1FA0F0C8DA}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="MXVER"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E1048196 H52:H1048196 I2:K1048196" xr:uid="{DD2A48DC-7068-4BD6-8A6F-E802386CE572}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E10 K2:K10 C14:E1048195 K14:K1048195" xr:uid="{833F6030-824F-4AAE-BA3C-131D886541AF}">
+      <formula1>shippername</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:K51 H52:K1048195 C2:E1048195" xr:uid="{DD2A48DC-7068-4BD6-8A6F-E802386CE572}">
       <formula1>AILNname</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E10 K2:K10 K14:K1048196 C14:E1048196" xr:uid="{833F6030-824F-4AAE-BA3C-131D886541AF}">
-      <formula1>shippername</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check information" error="This is not a known plant, please check the spelling or enter the information in the sheet &quot;Plant_ALIN&quot;" sqref="G2:G1048196" xr:uid="{D2D52A73-EC4B-4324-8BC4-BD77EF4C5461}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please check information" error="This is not a known plant, please check the spelling or enter the information in the sheet &quot;Plant_ALIN&quot;" sqref="G2:G1048195" xr:uid="{D2D52A73-EC4B-4324-8BC4-BD77EF4C5461}">
       <formula1>plantname</formula1>
     </dataValidation>
   </dataValidations>
